--- a/new monthly report202501.xlsx
+++ b/new monthly report202501.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="14605" tabRatio="600" firstSheet="0" activeTab="12" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="21780" tabRatio="600" firstSheet="0" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="202401" sheetId="1" state="visible" r:id="rId1"/>
@@ -951,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,6 +1225,7 @@
     <xf numFmtId="3" fontId="10" fillId="34" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1623,10 +1624,13 @@
   <dimension ref="A3:AA81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="G50" sqref="G50:H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="26.625" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="2" ht="15" customHeight="1"/>
     <row r="3" ht="15" customHeight="1">
@@ -5147,7 +5151,7 @@
       <c r="A49" s="7" t="n"/>
       <c r="B49" s="65" t="inlineStr">
         <is>
-          <t xml:space="preserve">9.Kurskhimvolokno </t>
+          <t>9.Kurskhimvolokno LTD</t>
         </is>
       </c>
       <c r="C49" s="27" t="n">
@@ -7287,7 +7291,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
   </cols>
@@ -12943,7 +12947,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
   </cols>
@@ -18611,13 +18615,14 @@
   </sheetPr>
   <dimension ref="A3:AD81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V34" sqref="B30:V34"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="20.875" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.85" customHeight="1"/>
@@ -24513,20 +24518,20 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="24.1416666666667" customWidth="1" min="2" max="2"/>
     <col width="6.625" customWidth="1" min="3" max="3"/>
-    <col width="8.875" customWidth="1" min="4" max="4"/>
-    <col width="10.25" customWidth="1" min="5" max="5"/>
-    <col width="24.2166666666667" customWidth="1" min="6" max="6"/>
-    <col width="6.11666666666667" customWidth="1" min="7" max="7"/>
-    <col width="5.33333333333333" customWidth="1" min="8" max="8"/>
+    <col width="13.3583333333333" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15.5166666666667" customWidth="1" min="6" max="6"/>
+    <col width="8.525" customWidth="1" min="7" max="7"/>
+    <col width="7.66666666666667" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="11.875" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="27.625" customWidth="1" min="14" max="14"/>
+    <col width="8.44166666666667" customWidth="1" min="12" max="12"/>
+    <col width="8.78333333333333" customWidth="1" min="13" max="13"/>
+    <col width="11.5583333333333" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="3.75" customWidth="1" min="17" max="17"/>
+    <col width="9.30833333333333" customWidth="1" min="16" max="16"/>
+    <col width="5.69166666666667" customWidth="1" min="17" max="17"/>
     <col width="2.875" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
@@ -24572,25 +24577,25 @@
       </c>
       <c r="C3" s="79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stock on </t>
+          <t>Stock on 31.12.24</t>
         </is>
       </c>
       <c r="D3" s="3" t="n"/>
       <c r="E3" s="80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Receipt in </t>
+          <t>Receipt in January 25</t>
         </is>
       </c>
       <c r="F3" s="79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delivery </t>
+          <t>Delivery January 25</t>
         </is>
       </c>
       <c r="G3" s="5" t="n"/>
       <c r="H3" s="3" t="n"/>
       <c r="I3" s="79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stock on </t>
+          <t>Stock on 31.01.25</t>
         </is>
       </c>
       <c r="J3" s="5" t="n"/>
@@ -24598,32 +24603,32 @@
       <c r="L3" s="3" t="n"/>
       <c r="M3" s="81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compared to </t>
+          <t>Compared to 31.12.24</t>
         </is>
       </c>
       <c r="N3" s="3" t="n"/>
       <c r="O3" s="79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delivery </t>
+          <t>Delivery December 24</t>
         </is>
       </c>
       <c r="P3" s="5" t="n"/>
       <c r="Q3" s="3" t="n"/>
       <c r="R3" s="82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delivery </t>
+          <t>Delivery January 25</t>
         </is>
       </c>
       <c r="S3" s="21" t="n"/>
       <c r="T3" s="79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delivery </t>
+          <t>Delivery January 24</t>
         </is>
       </c>
       <c r="U3" s="3" t="n"/>
       <c r="V3" s="82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delivery </t>
+          <t>Delivery January 25</t>
         </is>
       </c>
       <c r="W3" s="21" t="n"/>
@@ -24636,7 +24641,7 @@
       <c r="Z3" s="3" t="n"/>
       <c r="AA3" s="79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plan </t>
+          <t>Plan February 25</t>
         </is>
       </c>
       <c r="AB3" s="50" t="n"/>
@@ -24662,7 +24667,7 @@
       <c r="Q4" s="9" t="n"/>
       <c r="R4" s="82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delivery </t>
+          <t>Delivery December 24</t>
         </is>
       </c>
       <c r="S4" s="21" t="n"/>
@@ -24670,7 +24675,7 @@
       <c r="U4" s="9" t="n"/>
       <c r="V4" s="82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delivery </t>
+          <t>Delivery December 24</t>
         </is>
       </c>
       <c r="W4" s="21" t="n"/>
@@ -24791,12 +24796,12 @@
       </c>
       <c r="X5" s="79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> м </t>
+          <t>1 м 2025</t>
         </is>
       </c>
       <c r="Y5" s="79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> м </t>
+          <t>1 м 2024</t>
         </is>
       </c>
       <c r="Z5" s="79" t="inlineStr">
@@ -24868,8 +24873,12 @@
       <c r="D7" s="88" t="n">
         <v>360.36</v>
       </c>
-      <c r="E7" s="88" t="n"/>
-      <c r="F7" s="88" t="n"/>
+      <c r="E7" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="88" t="n">
+        <v>0</v>
+      </c>
       <c r="G7" s="88" t="n"/>
       <c r="H7" s="88" t="n"/>
       <c r="I7" s="88">
@@ -24878,7 +24887,9 @@
       </c>
       <c r="J7" s="88" t="n"/>
       <c r="K7" s="88" t="n"/>
-      <c r="L7" s="88" t="n"/>
+      <c r="L7" s="88" t="n">
+        <v>0</v>
+      </c>
       <c r="M7" s="89">
         <f>IF(C7&lt;&gt;0,I7/C7,"-")</f>
         <v/>
@@ -24918,16 +24929,18 @@
         <f>IF(U7&lt;&gt;0,H7/U7,"-")</f>
         <v/>
       </c>
-      <c r="X7" s="88" t="n"/>
-      <c r="Y7" s="88" t="n"/>
+      <c r="X7" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="88" t="n">
+        <v>2104.94</v>
+      </c>
       <c r="Z7" s="90">
         <f>IF(Y7&lt;&gt;0,X7/Y7,"-")</f>
         <v/>
       </c>
       <c r="AA7" s="88" t="n"/>
-      <c r="AB7" s="50" t="n">
-        <v>2104.94</v>
-      </c>
+      <c r="AB7" s="50" t="n"/>
       <c r="AC7" s="50" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -24943,8 +24956,12 @@
       <c r="D8" s="88" t="n">
         <v>3588.0698</v>
       </c>
-      <c r="E8" s="88" t="n"/>
-      <c r="F8" s="88" t="n"/>
+      <c r="E8" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="88" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" s="88">
         <f>IF(F7&lt;&gt;0,F8/F7*G7,"0")</f>
         <v/>
@@ -24959,7 +24976,9 @@
       </c>
       <c r="J8" s="88" t="n"/>
       <c r="K8" s="88" t="n"/>
-      <c r="L8" s="88" t="n"/>
+      <c r="L8" s="88" t="n">
+        <v>0</v>
+      </c>
       <c r="M8" s="89">
         <f>IF(C8&lt;&gt;0,I8/C8,"-")</f>
         <v/>
@@ -24999,13 +25018,18 @@
         <f>IF(U8&lt;&gt;0,H8/U8,"-")</f>
         <v/>
       </c>
-      <c r="X8" s="88" t="n"/>
-      <c r="Y8" s="88" t="n"/>
-      <c r="Z8" s="90" t="n"/>
+      <c r="X8" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="88" t="n">
+        <v>22419.67626</v>
+      </c>
+      <c r="Z8" s="90">
+        <f>IF(Y8&lt;&gt;0,X8/Y8,"-")</f>
+        <v/>
+      </c>
       <c r="AA8" s="88" t="n"/>
-      <c r="AB8" s="50" t="n">
-        <v>22419.67626</v>
-      </c>
+      <c r="AB8" s="50" t="n"/>
       <c r="AC8" s="50" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -25025,8 +25049,12 @@
       <c r="D9" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="88" t="n"/>
-      <c r="F9" s="88" t="n"/>
+      <c r="E9" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="88" t="n">
+        <v>0</v>
+      </c>
       <c r="G9" s="88" t="n"/>
       <c r="H9" s="88" t="n"/>
       <c r="I9" s="88">
@@ -25075,13 +25103,18 @@
         <f>IF(U9&lt;&gt;0,H9/U9,"-")</f>
         <v/>
       </c>
-      <c r="X9" s="88" t="n"/>
-      <c r="Y9" s="88" t="n"/>
-      <c r="Z9" s="90" t="n"/>
+      <c r="X9" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="88" t="n">
+        <v>540.54</v>
+      </c>
+      <c r="Z9" s="90">
+        <f>IF(Y9&lt;&gt;0,X9/Y9,"-")</f>
+        <v/>
+      </c>
       <c r="AA9" s="88" t="n"/>
-      <c r="AB9" s="50" t="n">
-        <v>540.54</v>
-      </c>
+      <c r="AB9" s="50" t="n"/>
       <c r="AC9" s="50" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -25097,8 +25130,12 @@
       <c r="D10" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="88" t="n"/>
-      <c r="F10" s="88" t="n"/>
+      <c r="E10" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="88" t="n">
+        <v>0</v>
+      </c>
       <c r="G10" s="88">
         <f>IF(F9&lt;&gt;0,F10/F9*G9,"0")</f>
         <v/>
@@ -25155,13 +25192,18 @@
         <f>IF(U10&lt;&gt;0,H10/U10,"-")</f>
         <v/>
       </c>
-      <c r="X10" s="88" t="n"/>
-      <c r="Y10" s="88" t="n"/>
-      <c r="Z10" s="90" t="n"/>
+      <c r="X10" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="88" t="n">
+        <v>5686.70964</v>
+      </c>
+      <c r="Z10" s="90">
+        <f>IF(Y10&lt;&gt;0,X10/Y10,"-")</f>
+        <v/>
+      </c>
       <c r="AA10" s="88" t="n"/>
-      <c r="AB10" s="50" t="n">
-        <v>5686.70964</v>
-      </c>
+      <c r="AB10" s="50" t="n"/>
       <c r="AC10" s="50" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -25181,8 +25223,12 @@
       <c r="D11" s="88" t="n">
         <v>849.42</v>
       </c>
-      <c r="E11" s="88" t="n"/>
-      <c r="F11" s="88" t="n"/>
+      <c r="E11" s="88" t="n">
+        <v>102.96</v>
+      </c>
+      <c r="F11" s="88" t="n">
+        <v>437.58</v>
+      </c>
       <c r="G11" s="88" t="n"/>
       <c r="H11" s="88" t="n"/>
       <c r="I11" s="88">
@@ -25191,7 +25237,9 @@
       </c>
       <c r="J11" s="88" t="n"/>
       <c r="K11" s="88" t="n"/>
-      <c r="L11" s="88" t="n"/>
+      <c r="L11" s="88" t="n">
+        <v>102.96</v>
+      </c>
       <c r="M11" s="89">
         <f>IF(C11&lt;&gt;0,I11/C11,"-")</f>
         <v/>
@@ -25231,13 +25279,18 @@
         <f>IF(U11&lt;&gt;0,H11/U11,"-")</f>
         <v/>
       </c>
-      <c r="X11" s="88" t="n"/>
-      <c r="Y11" s="88" t="n"/>
-      <c r="Z11" s="90" t="n"/>
+      <c r="X11" s="88" t="n">
+        <v>437.58</v>
+      </c>
+      <c r="Y11" s="88" t="n">
+        <v>91.845</v>
+      </c>
+      <c r="Z11" s="90">
+        <f>IF(Y11&lt;&gt;0,X11/Y11,"-")</f>
+        <v/>
+      </c>
       <c r="AA11" s="88" t="n"/>
-      <c r="AB11" s="50" t="n">
-        <v>91.845</v>
-      </c>
+      <c r="AB11" s="50" t="n"/>
       <c r="AC11" s="50" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -25253,8 +25306,12 @@
       <c r="D12" s="88" t="n">
         <v>8477.94102</v>
       </c>
-      <c r="E12" s="88" t="n"/>
-      <c r="F12" s="88" t="n"/>
+      <c r="E12" s="88" t="n">
+        <v>1019.3288</v>
+      </c>
+      <c r="F12" s="88" t="n">
+        <v>4616.32196</v>
+      </c>
       <c r="G12" s="88">
         <f>IF(F11&lt;&gt;0,F12/F11*G11,"0")</f>
         <v/>
@@ -25269,7 +25326,9 @@
       </c>
       <c r="J12" s="88" t="n"/>
       <c r="K12" s="88" t="n"/>
-      <c r="L12" s="88" t="n"/>
+      <c r="L12" s="88" t="n">
+        <v>955.97236</v>
+      </c>
       <c r="M12" s="89">
         <f>IF(C12&lt;&gt;0,I12/C12,"-")</f>
         <v/>
@@ -25309,13 +25368,18 @@
         <f>IF(U12&lt;&gt;0,H12/U12,"-")</f>
         <v/>
       </c>
-      <c r="X12" s="88" t="n"/>
-      <c r="Y12" s="88" t="n"/>
-      <c r="Z12" s="90" t="n"/>
+      <c r="X12" s="88" t="n">
+        <v>4616.32196</v>
+      </c>
+      <c r="Y12" s="88" t="n">
+        <v>1047.43822</v>
+      </c>
+      <c r="Z12" s="90">
+        <f>IF(Y12&lt;&gt;0,X12/Y12,"-")</f>
+        <v/>
+      </c>
       <c r="AA12" s="88" t="n"/>
-      <c r="AB12" s="50" t="n">
-        <v>1047.43822</v>
-      </c>
+      <c r="AB12" s="50" t="n"/>
       <c r="AC12" s="50" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -25335,8 +25399,12 @@
       <c r="D13" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="88" t="n"/>
-      <c r="F13" s="88" t="n"/>
+      <c r="E13" s="88" t="n">
+        <v>411.84</v>
+      </c>
+      <c r="F13" s="88" t="n">
+        <v>326.43</v>
+      </c>
       <c r="G13" s="88" t="n"/>
       <c r="H13" s="88" t="n"/>
       <c r="I13" s="88">
@@ -25345,7 +25413,9 @@
       </c>
       <c r="J13" s="88" t="n"/>
       <c r="K13" s="88" t="n"/>
-      <c r="L13" s="88" t="n"/>
+      <c r="L13" s="88" t="n">
+        <v>308.88</v>
+      </c>
       <c r="M13" s="89">
         <f>IF(C13&lt;&gt;0,I13/C13,"-")</f>
         <v/>
@@ -25385,13 +25455,18 @@
         <f>IF(U13&lt;&gt;0,H13/U13,"-")</f>
         <v/>
       </c>
-      <c r="X13" s="88" t="n"/>
-      <c r="Y13" s="88" t="n"/>
-      <c r="Z13" s="90" t="n"/>
+      <c r="X13" s="88" t="n">
+        <v>326.43</v>
+      </c>
+      <c r="Y13" s="88" t="n">
+        <v>125.885</v>
+      </c>
+      <c r="Z13" s="90">
+        <f>IF(Y13&lt;&gt;0,X13/Y13,"-")</f>
+        <v/>
+      </c>
       <c r="AA13" s="88" t="n"/>
-      <c r="AB13" s="50" t="n">
-        <v>125.885</v>
-      </c>
+      <c r="AB13" s="50" t="n"/>
       <c r="AC13" s="50" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -25407,8 +25482,12 @@
       <c r="D14" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="88" t="n"/>
-      <c r="F14" s="88" t="n"/>
+      <c r="E14" s="88" t="n">
+        <v>3819.21968</v>
+      </c>
+      <c r="F14" s="88" t="n">
+        <v>3555.1638</v>
+      </c>
       <c r="G14" s="88">
         <f>IF(F13&lt;&gt;0,F14/F13*G13,"0")</f>
         <v/>
@@ -25423,7 +25502,9 @@
       </c>
       <c r="J14" s="88" t="n"/>
       <c r="K14" s="88" t="n"/>
-      <c r="L14" s="88" t="n"/>
+      <c r="L14" s="88" t="n">
+        <v>2864.4546</v>
+      </c>
       <c r="M14" s="89">
         <f>IF(C14&lt;&gt;0,I14/C14,"-")</f>
         <v/>
@@ -25463,13 +25544,18 @@
         <f>IF(U14&lt;&gt;0,H14/U14,"-")</f>
         <v/>
       </c>
-      <c r="X14" s="88" t="n"/>
-      <c r="Y14" s="88" t="n"/>
-      <c r="Z14" s="90" t="n"/>
+      <c r="X14" s="88" t="n">
+        <v>3555.1638</v>
+      </c>
+      <c r="Y14" s="88" t="n">
+        <v>1369.40561</v>
+      </c>
+      <c r="Z14" s="90">
+        <f>IF(Y14&lt;&gt;0,X14/Y14,"-")</f>
+        <v/>
+      </c>
       <c r="AA14" s="88" t="n"/>
-      <c r="AB14" s="50" t="n">
-        <v>1369.40561</v>
-      </c>
+      <c r="AB14" s="50" t="n"/>
       <c r="AC14" s="50" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
@@ -25489,8 +25575,12 @@
       <c r="D15" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="88" t="n"/>
-      <c r="F15" s="88" t="n"/>
+      <c r="E15" s="88" t="n">
+        <v>411.84</v>
+      </c>
+      <c r="F15" s="88" t="n">
+        <v>0</v>
+      </c>
       <c r="G15" s="88" t="n"/>
       <c r="H15" s="88" t="n"/>
       <c r="I15" s="88">
@@ -25499,7 +25589,9 @@
       </c>
       <c r="J15" s="88" t="n"/>
       <c r="K15" s="88" t="n"/>
-      <c r="L15" s="88" t="n"/>
+      <c r="L15" s="88" t="n">
+        <v>411.84</v>
+      </c>
       <c r="M15" s="89">
         <f>IF(C15&lt;&gt;0,I15/C15,"-")</f>
         <v/>
@@ -25539,13 +25631,18 @@
         <f>IF(U15&lt;&gt;0,H15/U15,"-")</f>
         <v/>
       </c>
-      <c r="X15" s="88" t="n"/>
-      <c r="Y15" s="88" t="n"/>
-      <c r="Z15" s="90" t="n"/>
+      <c r="X15" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="90">
+        <f>IF(Y15&lt;&gt;0,X15/Y15,"-")</f>
+        <v/>
+      </c>
       <c r="AA15" s="88" t="n"/>
-      <c r="AB15" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB15" s="17" t="n"/>
       <c r="AC15" s="17" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -25561,8 +25658,12 @@
       <c r="D16" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="E16" s="88" t="n"/>
-      <c r="F16" s="88" t="n"/>
+      <c r="E16" s="88" t="n">
+        <v>3819.2728</v>
+      </c>
+      <c r="F16" s="88" t="n">
+        <v>0</v>
+      </c>
       <c r="G16" s="88">
         <f>IF(F15&lt;&gt;0,F16/F15*G15,"0")</f>
         <v/>
@@ -25577,7 +25678,9 @@
       </c>
       <c r="J16" s="88" t="n"/>
       <c r="K16" s="88" t="n"/>
-      <c r="L16" s="88" t="n"/>
+      <c r="L16" s="88" t="n">
+        <v>3819.2728</v>
+      </c>
       <c r="M16" s="89">
         <f>IF(C16&lt;&gt;0,I16/C16,"-")</f>
         <v/>
@@ -25619,13 +25722,18 @@
         <f>IF(U16&lt;&gt;0,H16/U16,"-")</f>
         <v/>
       </c>
-      <c r="X16" s="88" t="n"/>
-      <c r="Y16" s="88" t="n"/>
-      <c r="Z16" s="90" t="n"/>
+      <c r="X16" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="90">
+        <f>IF(Y16&lt;&gt;0,X16/Y16,"-")</f>
+        <v/>
+      </c>
       <c r="AA16" s="88" t="n"/>
-      <c r="AB16" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB16" s="17" t="n"/>
       <c r="AC16" s="17" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1">
@@ -25645,8 +25753,12 @@
       <c r="D17" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="88" t="n"/>
-      <c r="F17" s="88" t="n"/>
+      <c r="E17" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="88" t="n">
+        <v>0</v>
+      </c>
       <c r="G17" s="88" t="n">
         <v>0</v>
       </c>
@@ -25657,7 +25769,9 @@
       </c>
       <c r="J17" s="88" t="n"/>
       <c r="K17" s="88" t="n"/>
-      <c r="L17" s="88" t="n"/>
+      <c r="L17" s="88" t="n">
+        <v>0</v>
+      </c>
       <c r="M17" s="89">
         <f>IF(C17&lt;&gt;0,I17/C17,"-")</f>
         <v/>
@@ -25697,13 +25811,18 @@
         <f>IF(U17&lt;&gt;0,H17/U17,"-")</f>
         <v/>
       </c>
-      <c r="X17" s="88" t="n"/>
-      <c r="Y17" s="88" t="n"/>
-      <c r="Z17" s="90" t="n"/>
+      <c r="X17" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="90">
+        <f>IF(Y17&lt;&gt;0,X17/Y17,"-")</f>
+        <v/>
+      </c>
       <c r="AA17" s="88" t="n"/>
-      <c r="AB17" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB17" s="17" t="n"/>
       <c r="AC17" s="17" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
@@ -25719,8 +25838,12 @@
       <c r="D18" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="88" t="n"/>
-      <c r="F18" s="88" t="n"/>
+      <c r="E18" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="88" t="n">
+        <v>0</v>
+      </c>
       <c r="G18" s="88" t="n">
         <v>0</v>
       </c>
@@ -25734,7 +25857,9 @@
       </c>
       <c r="J18" s="88" t="n"/>
       <c r="K18" s="88" t="n"/>
-      <c r="L18" s="88" t="n"/>
+      <c r="L18" s="88" t="n">
+        <v/>
+      </c>
       <c r="M18" s="89">
         <f>IF(C18&lt;&gt;0,I18/C18,"-")</f>
         <v/>
@@ -25774,13 +25899,18 @@
         <f>IF(U18&lt;&gt;0,H18/U18,"-")</f>
         <v/>
       </c>
-      <c r="X18" s="88" t="n"/>
-      <c r="Y18" s="88" t="n"/>
-      <c r="Z18" s="90" t="n"/>
+      <c r="X18" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="90">
+        <f>IF(Y18&lt;&gt;0,X18/Y18,"-")</f>
+        <v/>
+      </c>
       <c r="AA18" s="88" t="n"/>
-      <c r="AB18" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB18" s="17" t="n"/>
       <c r="AC18" s="17" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
@@ -25865,13 +25995,19 @@
         <f>IF(U19&lt;&gt;0,H19/U19,"-")</f>
         <v/>
       </c>
-      <c r="X19" s="88" t="n"/>
-      <c r="Y19" s="88" t="n"/>
-      <c r="Z19" s="90" t="n"/>
+      <c r="X19" s="88">
+        <f>SUM(F7,F9,F11,F13,F15)</f>
+        <v/>
+      </c>
+      <c r="Y19" s="88" t="n">
+        <v>2863.21</v>
+      </c>
+      <c r="Z19" s="90">
+        <f>IF(Y19&lt;&gt;0,X19/Y19,"-")</f>
+        <v/>
+      </c>
       <c r="AA19" s="88" t="n"/>
-      <c r="AB19" s="17" t="n">
-        <v>2863.21</v>
-      </c>
+      <c r="AB19" s="17" t="n"/>
       <c r="AC19" s="17" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
@@ -25952,13 +26088,19 @@
         <f>IF(U20&lt;&gt;0,H20/U20,"-")</f>
         <v/>
       </c>
-      <c r="X20" s="88" t="n"/>
-      <c r="Y20" s="88" t="n"/>
-      <c r="Z20" s="90" t="n"/>
+      <c r="X20" s="88">
+        <f>IF(B2&lt;&gt;0,F21/B2,"-")</f>
+        <v/>
+      </c>
+      <c r="Y20" s="88" t="n">
+        <v>4819.02614976555</v>
+      </c>
+      <c r="Z20" s="90">
+        <f>IF(Y20&lt;&gt;0,X20/Y20,"-")</f>
+        <v/>
+      </c>
       <c r="AA20" s="88" t="n"/>
-      <c r="AB20" s="17" t="n">
-        <v>4819.02614976555</v>
-      </c>
+      <c r="AB20" s="17" t="n"/>
       <c r="AC20" s="17" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
@@ -26039,13 +26181,19 @@
         <f>IF(U21&lt;&gt;0,H21/U21,"-")</f>
         <v/>
       </c>
-      <c r="X21" s="88" t="n"/>
-      <c r="Y21" s="88" t="n"/>
-      <c r="Z21" s="90" t="n"/>
+      <c r="X21" s="88">
+        <f>SUM(F8,F10,F12,F14,F16)</f>
+        <v/>
+      </c>
+      <c r="Y21" s="88" t="n">
+        <v>30523.22973</v>
+      </c>
+      <c r="Z21" s="90">
+        <f>IF(Y21&lt;&gt;0,X21/Y21,"-")</f>
+        <v/>
+      </c>
       <c r="AA21" s="88" t="n"/>
-      <c r="AB21" s="17" t="n">
-        <v>30523.22973</v>
-      </c>
+      <c r="AB21" s="17" t="n"/>
       <c r="AC21" s="17" t="n"/>
     </row>
     <row r="22" ht="15" customHeight="1">
@@ -26065,8 +26213,12 @@
       <c r="D22" s="88" t="n">
         <v>1643.75</v>
       </c>
-      <c r="E22" s="88" t="n"/>
-      <c r="F22" s="88" t="n"/>
+      <c r="E22" s="88" t="n">
+        <v>1498.75</v>
+      </c>
+      <c r="F22" s="88" t="n">
+        <v>2484.125</v>
+      </c>
       <c r="G22" s="88" t="n">
         <v>0</v>
       </c>
@@ -26077,7 +26229,9 @@
       </c>
       <c r="J22" s="88" t="n"/>
       <c r="K22" s="88" t="n"/>
-      <c r="L22" s="88" t="n"/>
+      <c r="L22" s="88" t="n">
+        <v>1298.75</v>
+      </c>
       <c r="M22" s="89">
         <f>IF(C22&lt;&gt;0,I22/C22,"-")</f>
         <v/>
@@ -26117,13 +26271,18 @@
         <f>IF(U22&lt;&gt;0,H22/U22,"-")</f>
         <v/>
       </c>
-      <c r="X22" s="88" t="n"/>
-      <c r="Y22" s="88" t="n"/>
-      <c r="Z22" s="90" t="n"/>
+      <c r="X22" s="88" t="n">
+        <v>2484.125</v>
+      </c>
+      <c r="Y22" s="88" t="n">
+        <v>1795</v>
+      </c>
+      <c r="Z22" s="90">
+        <f>IF(Y22&lt;&gt;0,X22/Y22,"-")</f>
+        <v/>
+      </c>
       <c r="AA22" s="88" t="n"/>
-      <c r="AB22" s="17" t="n">
-        <v>1795</v>
-      </c>
+      <c r="AB22" s="17" t="n"/>
       <c r="AC22" s="17" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1">
@@ -26139,8 +26298,12 @@
       <c r="D23" s="88" t="n">
         <v>2391.83238762847</v>
       </c>
-      <c r="E23" s="88" t="n"/>
-      <c r="F23" s="88" t="n"/>
+      <c r="E23" s="88" t="n">
+        <v>2072.765365730435</v>
+      </c>
+      <c r="F23" s="88" t="n">
+        <v>3664.196698716431</v>
+      </c>
       <c r="G23" s="88">
         <f>IF(H22&lt;&gt;0,G23/G22*H22,"0")</f>
         <v/>
@@ -26155,7 +26318,9 @@
       </c>
       <c r="J23" s="88" t="n"/>
       <c r="K23" s="88" t="n"/>
-      <c r="L23" s="88" t="n"/>
+      <c r="L23" s="88" t="n">
+        <v>11285.71099</v>
+      </c>
       <c r="M23" s="89">
         <f>IF(C23&lt;&gt;0,I23/C23,"-")</f>
         <v/>
@@ -26195,13 +26360,18 @@
         <f>IF(U23&lt;&gt;0,H23/U23,"-")</f>
         <v/>
       </c>
-      <c r="X23" s="88" t="n"/>
-      <c r="Y23" s="88" t="n"/>
-      <c r="Z23" s="90" t="n"/>
+      <c r="X23" s="88" t="n">
+        <v>3664.196698716431</v>
+      </c>
+      <c r="Y23" s="88" t="n">
+        <v>2980.8718972513</v>
+      </c>
+      <c r="Z23" s="90">
+        <f>IF(Y23&lt;&gt;0,X23/Y23,"-")</f>
+        <v/>
+      </c>
       <c r="AA23" s="88" t="n"/>
-      <c r="AB23" s="17" t="n">
-        <v>2980.8718972513</v>
-      </c>
+      <c r="AB23" s="17" t="n"/>
       <c r="AC23" s="17" t="n"/>
     </row>
     <row r="24" ht="15" customHeight="1">
@@ -26221,8 +26391,12 @@
       <c r="D24" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="E24" s="88" t="n"/>
-      <c r="F24" s="88" t="n"/>
+      <c r="E24" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="88" t="n">
+        <v>0</v>
+      </c>
       <c r="G24" s="88" t="n">
         <v>0</v>
       </c>
@@ -26275,13 +26449,18 @@
         <f>IF(U24&lt;&gt;0,H24/U24,"-")</f>
         <v/>
       </c>
-      <c r="X24" s="88" t="n"/>
-      <c r="Y24" s="88" t="n"/>
-      <c r="Z24" s="90" t="n"/>
+      <c r="X24" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="90">
+        <f>IF(Y24&lt;&gt;0,X24/Y24,"-")</f>
+        <v/>
+      </c>
       <c r="AA24" s="88" t="n"/>
-      <c r="AB24" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB24" s="17" t="n"/>
       <c r="AC24" s="17" t="n"/>
     </row>
     <row r="25" ht="15" customHeight="1">
@@ -26297,8 +26476,12 @@
       <c r="D25" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="E25" s="88" t="n"/>
-      <c r="F25" s="88" t="n"/>
+      <c r="E25" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="88" t="n">
+        <v>0</v>
+      </c>
       <c r="G25" s="88" t="n">
         <v>0</v>
       </c>
@@ -26351,13 +26534,18 @@
         <f>IF(U25&lt;&gt;0,H25/U25,"-")</f>
         <v/>
       </c>
-      <c r="X25" s="88" t="n"/>
-      <c r="Y25" s="88" t="n"/>
-      <c r="Z25" s="90" t="n"/>
+      <c r="X25" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="90">
+        <f>IF(Y25&lt;&gt;0,X25/Y25,"-")</f>
+        <v/>
+      </c>
       <c r="AA25" s="88" t="n"/>
-      <c r="AB25" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB25" s="17" t="n"/>
       <c r="AC25" s="17" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
@@ -26377,8 +26565,12 @@
       <c r="D26" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="E26" s="88" t="n"/>
-      <c r="F26" s="88" t="n"/>
+      <c r="E26" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="88" t="n">
+        <v>0</v>
+      </c>
       <c r="G26" s="88" t="n">
         <v>0</v>
       </c>
@@ -26431,13 +26623,18 @@
         <f>IF(U26&lt;&gt;0,H26/U26,"-")</f>
         <v/>
       </c>
-      <c r="X26" s="88" t="n"/>
-      <c r="Y26" s="88" t="n"/>
-      <c r="Z26" s="90" t="n"/>
+      <c r="X26" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="90">
+        <f>IF(Y26&lt;&gt;0,X26/Y26,"-")</f>
+        <v/>
+      </c>
       <c r="AA26" s="88" t="n"/>
-      <c r="AB26" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB26" s="17" t="n"/>
       <c r="AC26" s="17" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
@@ -26453,8 +26650,12 @@
       <c r="D27" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="E27" s="88" t="n"/>
-      <c r="F27" s="88" t="n"/>
+      <c r="E27" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="88" t="n">
+        <v>0</v>
+      </c>
       <c r="G27" s="88" t="n">
         <v>0</v>
       </c>
@@ -26507,13 +26708,18 @@
         <f>IF(U27&lt;&gt;0,H27/U27,"-")</f>
         <v/>
       </c>
-      <c r="X27" s="88" t="n"/>
-      <c r="Y27" s="88" t="n"/>
-      <c r="Z27" s="90" t="n"/>
+      <c r="X27" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="90">
+        <f>IF(Y27&lt;&gt;0,X27/Y27,"-")</f>
+        <v/>
+      </c>
       <c r="AA27" s="88" t="n"/>
-      <c r="AB27" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB27" s="17" t="n"/>
       <c r="AC27" s="17" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
@@ -26533,8 +26739,12 @@
       <c r="D28" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="E28" s="88" t="n"/>
-      <c r="F28" s="88" t="n"/>
+      <c r="E28" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="88" t="n">
+        <v>0</v>
+      </c>
       <c r="G28" s="88" t="n">
         <v>0</v>
       </c>
@@ -26588,13 +26798,18 @@
         <f>IF(U28&lt;&gt;0,H28/U28,"-")</f>
         <v/>
       </c>
-      <c r="X28" s="88" t="n"/>
-      <c r="Y28" s="88" t="n"/>
-      <c r="Z28" s="90" t="n"/>
+      <c r="X28" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="90">
+        <f>IF(Y28&lt;&gt;0,X28/Y28,"-")</f>
+        <v/>
+      </c>
       <c r="AA28" s="88" t="n"/>
-      <c r="AB28" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB28" s="17" t="n"/>
       <c r="AC28" s="17" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1">
@@ -26610,8 +26825,12 @@
       <c r="D29" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="E29" s="88" t="n"/>
-      <c r="F29" s="88" t="n"/>
+      <c r="E29" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="88" t="n">
+        <v>0</v>
+      </c>
       <c r="G29" s="88" t="n">
         <v>0</v>
       </c>
@@ -26665,13 +26884,18 @@
         <f>IF(U29&lt;&gt;0,H29/U29,"-")</f>
         <v/>
       </c>
-      <c r="X29" s="88" t="n"/>
-      <c r="Y29" s="88" t="n"/>
-      <c r="Z29" s="90" t="n"/>
+      <c r="X29" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="90">
+        <f>IF(Y29&lt;&gt;0,X29/Y29,"-")</f>
+        <v/>
+      </c>
       <c r="AA29" s="88" t="n"/>
-      <c r="AB29" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB29" s="17" t="n"/>
       <c r="AC29" s="17" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
@@ -26756,13 +26980,19 @@
         <f>IF(U30&lt;&gt;0,H30/U30,"-")</f>
         <v/>
       </c>
-      <c r="X30" s="88" t="n"/>
-      <c r="Y30" s="88" t="n"/>
-      <c r="Z30" s="90" t="n"/>
+      <c r="X30" s="88">
+        <f>SUM(F19,F22,F24,F26,F28)</f>
+        <v/>
+      </c>
+      <c r="Y30" s="88" t="n">
+        <v>4658.21</v>
+      </c>
+      <c r="Z30" s="90">
+        <f>IF(Y30&lt;&gt;0,X30/Y30,"-")</f>
+        <v/>
+      </c>
       <c r="AA30" s="88" t="n"/>
-      <c r="AB30" s="17" t="n">
-        <v>4658.21</v>
-      </c>
+      <c r="AB30" s="17" t="n"/>
       <c r="AC30" s="17" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1">
@@ -26843,13 +27073,19 @@
         <f>IF(U31&lt;&gt;0,H31/U31,"-")</f>
         <v/>
       </c>
-      <c r="X31" s="88" t="n"/>
-      <c r="Y31" s="88" t="n"/>
-      <c r="Z31" s="90" t="n"/>
+      <c r="X31" s="88">
+        <f>IF(B2&lt;&gt;0,F32/B2,"-")</f>
+        <v/>
+      </c>
+      <c r="Y31" s="88" t="n">
+        <v>7799.89804701685</v>
+      </c>
+      <c r="Z31" s="90">
+        <f>IF(Y31&lt;&gt;0,X31/Y31,"-")</f>
+        <v/>
+      </c>
       <c r="AA31" s="88" t="n"/>
-      <c r="AB31" s="17" t="n">
-        <v>7799.89804701685</v>
-      </c>
+      <c r="AB31" s="17" t="n"/>
       <c r="AC31" s="17" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
@@ -26930,13 +27166,19 @@
         <f>IF(U32&lt;&gt;0,H32/U32,"-")</f>
         <v/>
       </c>
-      <c r="X32" s="88" t="n"/>
-      <c r="Y32" s="88" t="n"/>
-      <c r="Z32" s="90" t="n"/>
+      <c r="X32" s="88">
+        <f>SUM(F18,F21,F27,F29)+(F23+F25)*B2</f>
+        <v/>
+      </c>
+      <c r="Y32" s="88" t="n">
+        <v>49403.77424</v>
+      </c>
+      <c r="Z32" s="90">
+        <f>IF(Y32&lt;&gt;0,X32/Y32,"-")</f>
+        <v/>
+      </c>
       <c r="AA32" s="88" t="n"/>
-      <c r="AB32" s="17" t="n">
-        <v>49403.77424</v>
-      </c>
+      <c r="AB32" s="17" t="n"/>
       <c r="AC32" s="17" t="n"/>
     </row>
     <row r="33">
@@ -27100,11 +27342,19 @@
           <t>Sum, ths.  RMB</t>
         </is>
       </c>
-      <c r="B38" s="19" t="n"/>
+      <c r="B38" s="19" t="inlineStr">
+        <is>
+          <t>31/01/25</t>
+        </is>
+      </c>
       <c r="C38" s="20" t="n"/>
       <c r="D38" s="20" t="n"/>
       <c r="E38" s="21" t="n"/>
-      <c r="F38" s="19" t="n"/>
+      <c r="F38" s="19" t="inlineStr">
+        <is>
+          <t>31/12/24</t>
+        </is>
+      </c>
       <c r="G38" s="20" t="n"/>
       <c r="H38" s="20" t="n"/>
       <c r="I38" s="20" t="n"/>
@@ -27116,7 +27366,11 @@
       </c>
       <c r="L38" s="20" t="n"/>
       <c r="M38" s="21" t="n"/>
-      <c r="N38" s="19" t="n"/>
+      <c r="N38" s="19" t="inlineStr">
+        <is>
+          <t>31/01/24</t>
+        </is>
+      </c>
       <c r="O38" s="21" t="n"/>
       <c r="P38" s="92" t="inlineStr">
         <is>
@@ -27255,23 +27509,25 @@
       <c r="AB40" s="17" t="n"/>
       <c r="AC40" s="17" t="n"/>
     </row>
-    <row r="41">
+    <row r="41" ht="15" customHeight="1">
       <c r="A41" s="25" t="inlineStr">
         <is>
           <t>TOP 10 customers</t>
         </is>
       </c>
-      <c r="B41" s="65" t="n">
-        <v>0</v>
+      <c r="B41" s="65" t="inlineStr">
+        <is>
+          <t>1.PolyCapro</t>
+        </is>
       </c>
       <c r="C41" s="27" t="n">
-        <v>0</v>
+        <v>194511.29816</v>
       </c>
       <c r="D41" s="27" t="n">
-        <v>0</v>
+        <v>194511.2981599999</v>
       </c>
       <c r="E41" s="27" t="n">
-        <v>0</v>
+        <v>194511.29816</v>
       </c>
       <c r="F41" s="66" t="inlineStr">
         <is>
@@ -27288,9 +27544,15 @@
       <c r="J41" s="27" t="n">
         <v>202036.42734</v>
       </c>
-      <c r="K41" s="94" t="n"/>
-      <c r="L41" s="94" t="n"/>
-      <c r="M41" s="94" t="n"/>
+      <c r="K41" s="94" t="n">
+        <v>-7525.129179999989</v>
+      </c>
+      <c r="L41" s="94" t="n">
+        <v>-3255.482890000101</v>
+      </c>
+      <c r="M41" s="94" t="n">
+        <v>-7525.129179999989</v>
+      </c>
       <c r="N41" s="65" t="inlineStr">
         <is>
           <t>1.PolyCapro</t>
@@ -27299,11 +27561,11 @@
       <c r="O41" s="34" t="n">
         <v>109184.94283</v>
       </c>
-      <c r="P41" s="95" t="n"/>
-      <c r="Q41" s="96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P41" s="95" t="n">
+        <v>85326.35533000001</v>
+      </c>
+      <c r="Q41" s="96" t="n">
+        <v>1.781484636236449</v>
       </c>
       <c r="R41" s="21" t="n"/>
       <c r="S41" s="17" t="n"/>
@@ -27318,13 +27580,15 @@
       <c r="AB41" s="17" t="n"/>
       <c r="AC41" s="17" t="n"/>
     </row>
-    <row r="42">
+    <row r="42" ht="15" customHeight="1">
       <c r="A42" s="7" t="n"/>
-      <c r="B42" s="65" t="n">
-        <v>0</v>
+      <c r="B42" s="65" t="inlineStr">
+        <is>
+          <t>2.Kingfa</t>
+        </is>
       </c>
       <c r="C42" s="27" t="n">
-        <v>0</v>
+        <v>11248.32852</v>
       </c>
       <c r="D42" s="27" t="n">
         <v>0</v>
@@ -27347,9 +27611,15 @@
       <c r="J42" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K42" s="94" t="n"/>
-      <c r="L42" s="94" t="n"/>
-      <c r="M42" s="94" t="n"/>
+      <c r="K42" s="94" t="n">
+        <v>-2270.654100000002</v>
+      </c>
+      <c r="L42" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="94" t="n">
+        <v>0</v>
+      </c>
       <c r="N42" s="65" t="inlineStr">
         <is>
           <t>2.SIMOSA INTL CO.,LTD</t>
@@ -27358,11 +27628,11 @@
       <c r="O42" s="34" t="n">
         <v>11259.18423</v>
       </c>
-      <c r="P42" s="95" t="n"/>
-      <c r="Q42" s="96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P42" s="95" t="n">
+        <v>5159.277469999999</v>
+      </c>
+      <c r="Q42" s="96" t="n">
+        <v>1.847304026133924</v>
       </c>
       <c r="R42" s="21" t="n"/>
       <c r="S42" s="17" t="n"/>
@@ -27377,19 +27647,21 @@
       <c r="AB42" s="17" t="n"/>
       <c r="AC42" s="17" t="n"/>
     </row>
-    <row r="43">
+    <row r="43" ht="15" customHeight="1">
       <c r="A43" s="7" t="n"/>
-      <c r="B43" s="65" t="n">
-        <v>0</v>
+      <c r="B43" s="65" t="inlineStr">
+        <is>
+          <t>3.PJSC KUIBYSHEVAZOT</t>
+        </is>
       </c>
       <c r="C43" s="27" t="n">
-        <v>0</v>
+        <v>7256.342650000001</v>
       </c>
       <c r="D43" s="27" t="n">
-        <v>0</v>
+        <v>2062.21792</v>
       </c>
       <c r="E43" s="27" t="n">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="F43" s="66" t="inlineStr">
         <is>
@@ -27406,9 +27678,15 @@
       <c r="J43" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K43" s="94" t="n"/>
-      <c r="L43" s="94" t="n"/>
-      <c r="M43" s="94" t="n"/>
+      <c r="K43" s="94" t="n">
+        <v>179.8990000000003</v>
+      </c>
+      <c r="L43" s="94" t="n">
+        <v>768.78</v>
+      </c>
+      <c r="M43" s="94" t="n">
+        <v>228</v>
+      </c>
       <c r="N43" s="65" t="inlineStr">
         <is>
           <t>3.Kingfa</t>
@@ -27417,11 +27695,11 @@
       <c r="O43" s="34" t="n">
         <v>6089.05105</v>
       </c>
-      <c r="P43" s="95" t="n"/>
-      <c r="Q43" s="96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P43" s="95" t="n">
+        <v>4950.56876</v>
+      </c>
+      <c r="Q43" s="96" t="n">
+        <v>3.147031320577579</v>
       </c>
       <c r="R43" s="21" t="n"/>
       <c r="S43" s="17" t="n"/>
@@ -27436,16 +27714,18 @@
       <c r="AB43" s="17" t="n"/>
       <c r="AC43" s="17" t="n"/>
     </row>
-    <row r="44">
+    <row r="44" ht="15" customHeight="1">
       <c r="A44" s="7" t="n"/>
-      <c r="B44" s="65" t="n">
-        <v>0</v>
+      <c r="B44" s="65" t="inlineStr">
+        <is>
+          <t>4.LTD BALTEX</t>
+        </is>
       </c>
       <c r="C44" s="27" t="n">
-        <v>0</v>
+        <v>2749.65044</v>
       </c>
       <c r="D44" s="27" t="n">
-        <v>0</v>
+        <v>684.2626599999999</v>
       </c>
       <c r="E44" s="27" t="n">
         <v>0</v>
@@ -27465,9 +27745,15 @@
       <c r="J44" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K44" s="94" t="n"/>
-      <c r="L44" s="94" t="n"/>
-      <c r="M44" s="94" t="n"/>
+      <c r="K44" s="94" t="n">
+        <v>772.9721</v>
+      </c>
+      <c r="L44" s="94" t="n">
+        <v>471.6571599999999</v>
+      </c>
+      <c r="M44" s="94" t="n">
+        <v>0</v>
+      </c>
       <c r="N44" s="65" t="inlineStr">
         <is>
           <t>4.PJSC KUIBYSHEVAZOT</t>
@@ -27476,11 +27762,11 @@
       <c r="O44" s="34" t="n">
         <v>2305.77389</v>
       </c>
-      <c r="P44" s="95" t="n"/>
-      <c r="Q44" s="96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P44" s="95" t="n">
+        <v>1041.46374</v>
+      </c>
+      <c r="Q44" s="96" t="n">
+        <v>1.609689643409588</v>
       </c>
       <c r="R44" s="21" t="n"/>
       <c r="S44" s="17" t="n"/>
@@ -27495,19 +27781,21 @@
       <c r="AB44" s="17" t="n"/>
       <c r="AC44" s="17" t="n"/>
     </row>
-    <row r="45">
+    <row r="45" ht="15" customHeight="1">
       <c r="A45" s="7" t="n"/>
-      <c r="B45" s="65" t="n">
-        <v>0</v>
+      <c r="B45" s="65" t="inlineStr">
+        <is>
+          <t>5.Kurskhimvolokno LTD</t>
+        </is>
       </c>
       <c r="C45" s="27" t="n">
-        <v>0</v>
+        <v>855.21978</v>
       </c>
       <c r="D45" s="27" t="n">
-        <v>0</v>
+        <v>855.21978</v>
       </c>
       <c r="E45" s="27" t="n">
-        <v>0</v>
+        <v>855.21978</v>
       </c>
       <c r="F45" s="66" t="inlineStr">
         <is>
@@ -27524,9 +27812,15 @@
       <c r="J45" s="27" t="n">
         <v>912.46978</v>
       </c>
-      <c r="K45" s="94" t="n"/>
-      <c r="L45" s="94" t="n"/>
-      <c r="M45" s="94" t="n"/>
+      <c r="K45" s="94" t="n">
+        <v>-69.85000000000002</v>
+      </c>
+      <c r="L45" s="94" t="n">
+        <v>-57.25</v>
+      </c>
+      <c r="M45" s="94" t="n">
+        <v>-57.25</v>
+      </c>
       <c r="N45" s="65" t="inlineStr">
         <is>
           <t>5.LTD BALTEX</t>
@@ -27535,11 +27829,11 @@
       <c r="O45" s="34" t="n">
         <v>1708.1867</v>
       </c>
-      <c r="P45" s="95" t="n"/>
-      <c r="Q45" s="96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P45" s="95" t="n">
+        <v>677.57978</v>
+      </c>
+      <c r="Q45" s="96" t="n">
+        <v>4.814342377842829</v>
       </c>
       <c r="R45" s="21" t="n"/>
       <c r="S45" s="17" t="n"/>
@@ -27554,19 +27848,21 @@
       <c r="AB45" s="17" t="n"/>
       <c r="AC45" s="17" t="n"/>
     </row>
-    <row r="46">
+    <row r="46" ht="15" customHeight="1">
       <c r="A46" s="7" t="n"/>
-      <c r="B46" s="65" t="n">
-        <v>0</v>
+      <c r="B46" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6.Ziyi Technology </t>
+        </is>
       </c>
       <c r="C46" s="27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D46" s="27" t="n">
         <v>0</v>
       </c>
       <c r="E46" s="27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F46" s="66" t="inlineStr">
         <is>
@@ -27583,9 +27879,15 @@
       <c r="J46" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K46" s="94" t="n"/>
-      <c r="L46" s="94" t="n"/>
-      <c r="M46" s="94" t="n"/>
+      <c r="K46" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="94" t="n">
+        <v>12</v>
+      </c>
       <c r="N46" s="65" t="inlineStr">
         <is>
           <t>6.Domo Engineering Plastics</t>
@@ -27594,7 +27896,9 @@
       <c r="O46" s="34" t="n">
         <v>720.72</v>
       </c>
-      <c r="P46" s="95" t="n"/>
+      <c r="P46" s="95" t="n">
+        <v>12</v>
+      </c>
       <c r="Q46" s="96" t="inlineStr">
         <is>
           <t>-</t>
@@ -27613,10 +27917,12 @@
       <c r="AB46" s="17" t="n"/>
       <c r="AC46" s="17" t="n"/>
     </row>
-    <row r="47">
+    <row r="47" ht="15" customHeight="1">
       <c r="A47" s="7" t="n"/>
-      <c r="B47" s="65" t="n">
-        <v>0</v>
+      <c r="B47" s="65" t="inlineStr">
+        <is>
+          <t>7.Other customers</t>
+        </is>
       </c>
       <c r="C47" s="27" t="n">
         <v>0</v>
@@ -27642,9 +27948,15 @@
       <c r="J47" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K47" s="94" t="n"/>
-      <c r="L47" s="94" t="n"/>
-      <c r="M47" s="94" t="n"/>
+      <c r="K47" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="94" t="n">
+        <v>0</v>
+      </c>
       <c r="N47" s="65" t="inlineStr">
         <is>
           <t>7.UNITIKA</t>
@@ -27653,7 +27965,9 @@
       <c r="O47" s="34" t="n">
         <v>537.53996</v>
       </c>
-      <c r="P47" s="95" t="n"/>
+      <c r="P47" s="95" t="n">
+        <v>0</v>
+      </c>
       <c r="Q47" s="96" t="inlineStr">
         <is>
           <t>-</t>
@@ -27672,7 +27986,7 @@
       <c r="AB47" s="17" t="n"/>
       <c r="AC47" s="17" t="n"/>
     </row>
-    <row r="48">
+    <row r="48" ht="15" customHeight="1">
       <c r="A48" s="7" t="n"/>
       <c r="B48" s="65" t="n">
         <v>0</v>
@@ -27699,9 +28013,15 @@
       <c r="J48" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K48" s="94" t="n"/>
-      <c r="L48" s="94" t="n"/>
-      <c r="M48" s="94" t="n"/>
+      <c r="K48" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="94" t="n">
+        <v>0</v>
+      </c>
       <c r="N48" s="65" t="inlineStr">
         <is>
           <t>8.EPSAN FZ KIMYA</t>
@@ -27710,7 +28030,9 @@
       <c r="O48" s="34" t="n">
         <v>243.52169</v>
       </c>
-      <c r="P48" s="95" t="n"/>
+      <c r="P48" s="95" t="n">
+        <v>0</v>
+      </c>
       <c r="Q48" s="96" t="inlineStr">
         <is>
           <t>-</t>
@@ -27729,7 +28051,7 @@
       <c r="AB48" s="17" t="n"/>
       <c r="AC48" s="17" t="n"/>
     </row>
-    <row r="49">
+    <row r="49" ht="15" customHeight="1">
       <c r="A49" s="7" t="n"/>
       <c r="B49" s="65" t="n">
         <v>0</v>
@@ -27756,18 +28078,26 @@
       <c r="J49" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K49" s="94" t="n"/>
-      <c r="L49" s="94" t="n"/>
-      <c r="M49" s="94" t="n"/>
+      <c r="K49" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="94" t="n">
+        <v>0</v>
+      </c>
       <c r="N49" s="65" t="inlineStr">
         <is>
-          <t xml:space="preserve">9.Kurskhimvolokno </t>
+          <t>9.Kurskhimvolokno LTD</t>
         </is>
       </c>
       <c r="O49" s="34" t="n">
         <v>177.64</v>
       </c>
-      <c r="P49" s="95" t="n"/>
+      <c r="P49" s="95" t="n">
+        <v>0</v>
+      </c>
       <c r="Q49" s="96" t="inlineStr">
         <is>
           <t>-</t>
@@ -27786,7 +28116,7 @@
       <c r="AB49" s="17" t="n"/>
       <c r="AC49" s="17" t="n"/>
     </row>
-    <row r="50">
+    <row r="50" ht="15" customHeight="1">
       <c r="A50" s="7" t="n"/>
       <c r="B50" s="65" t="n">
         <v>0</v>
@@ -27813,16 +28143,24 @@
       <c r="J50" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K50" s="94" t="n"/>
-      <c r="L50" s="94" t="n"/>
-      <c r="M50" s="94" t="n"/>
+      <c r="K50" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="94" t="n">
+        <v>0</v>
+      </c>
       <c r="N50" s="65" t="n">
         <v>0</v>
       </c>
       <c r="O50" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="P50" s="95" t="n"/>
+      <c r="P50" s="95" t="n">
+        <v>0</v>
+      </c>
       <c r="Q50" s="96" t="inlineStr">
         <is>
           <t>-</t>
@@ -27841,7 +28179,7 @@
       <c r="AB50" s="17" t="n"/>
       <c r="AC50" s="17" t="n"/>
     </row>
-    <row r="51">
+    <row r="51" ht="15" customHeight="1">
       <c r="A51" s="10" t="n"/>
       <c r="B51" s="30" t="inlineStr">
         <is>
@@ -27917,7 +28255,7 @@
       <c r="AB51" s="17" t="n"/>
       <c r="AC51" s="17" t="n"/>
     </row>
-    <row r="52">
+    <row r="52" ht="15" customHeight="1">
       <c r="A52" s="31" t="inlineStr">
         <is>
           <t>Other customers</t>
@@ -27982,7 +28320,7 @@
       <c r="AB52" s="17" t="n"/>
       <c r="AC52" s="17" t="n"/>
     </row>
-    <row r="53">
+    <row r="53" ht="15" customHeight="1">
       <c r="A53" s="22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -28084,7 +28422,7 @@
       <c r="AB54" s="17" t="n"/>
       <c r="AC54" s="17" t="n"/>
     </row>
-    <row r="55" ht="15" customHeight="1">
+    <row r="55" ht="23.25" customHeight="1">
       <c r="A55" s="25" t="inlineStr">
         <is>
           <t>TOP 5 suppliers</t>
@@ -28119,14 +28457,17 @@
       <c r="J55" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="K55" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" s="95" t="n">
-        <v>0</v>
+      <c r="K55" s="95">
+        <f>C55-H55</f>
+        <v/>
+      </c>
+      <c r="L55" s="95">
+        <f>D55-I55</f>
+        <v/>
+      </c>
+      <c r="M55" s="95">
+        <f>E55-J55</f>
+        <v/>
       </c>
       <c r="N55" s="30" t="inlineStr">
         <is>
@@ -28136,13 +28477,13 @@
       <c r="O55" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="P55" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P55" s="95">
+        <f>C55-O55</f>
+        <v/>
+      </c>
+      <c r="Q55" s="96">
+        <f>IF(O55&lt;&gt;0,C55/O55,"-")</f>
+        <v/>
       </c>
       <c r="R55" s="21" t="n"/>
       <c r="S55" s="17" t="n"/>
@@ -28165,13 +28506,13 @@
         </is>
       </c>
       <c r="C56" s="32" t="n">
-        <v>3532.15108</v>
+        <v>0</v>
       </c>
       <c r="D56" s="32" t="n">
-        <v>3532.15108</v>
+        <v>0</v>
       </c>
       <c r="E56" s="32" t="n">
-        <v>3532.15108</v>
+        <v>0</v>
       </c>
       <c r="F56" s="33" t="inlineStr">
         <is>
@@ -28180,22 +28521,25 @@
       </c>
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="32" t="n">
-        <v>3521.61016</v>
+        <v>0</v>
       </c>
       <c r="I56" s="32" t="n">
-        <v>3521.61016</v>
+        <v>0</v>
       </c>
       <c r="J56" s="32" t="n">
-        <v>3521.61016</v>
-      </c>
-      <c r="K56" s="95" t="n">
-        <v>10.5409199999999</v>
-      </c>
-      <c r="L56" s="95" t="n">
-        <v>10.5409199999999</v>
-      </c>
-      <c r="M56" s="95" t="n">
-        <v>10.5409199999999</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="95">
+        <f>C56-H56</f>
+        <v/>
+      </c>
+      <c r="L56" s="95">
+        <f>D56-I56</f>
+        <v/>
+      </c>
+      <c r="M56" s="95">
+        <f>E56-J56</f>
+        <v/>
       </c>
       <c r="N56" s="30" t="inlineStr">
         <is>
@@ -28203,13 +28547,15 @@
         </is>
       </c>
       <c r="O56" s="34" t="n">
-        <v>3361.35843</v>
-      </c>
-      <c r="P56" s="95" t="n">
-        <v>170.79265</v>
-      </c>
-      <c r="Q56" s="96" t="n">
-        <v>1.05081060337859</v>
+        <v>3532.15108</v>
+      </c>
+      <c r="P56" s="95">
+        <f>C56-O56</f>
+        <v/>
+      </c>
+      <c r="Q56" s="96">
+        <f>IF(O56&lt;&gt;0,C56/O56,"-")</f>
+        <v/>
       </c>
       <c r="R56" s="21" t="n"/>
       <c r="S56" s="17" t="n"/>
@@ -28224,7 +28570,7 @@
       <c r="AB56" s="17" t="n"/>
       <c r="AC56" s="17" t="n"/>
     </row>
-    <row r="57" ht="15" customHeight="1">
+    <row r="57" ht="23.25" customHeight="1">
       <c r="A57" s="7" t="n"/>
       <c r="B57" s="30" t="inlineStr">
         <is>
@@ -28255,14 +28601,17 @@
       <c r="J57" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="K57" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" s="95" t="n">
-        <v>0</v>
+      <c r="K57" s="95">
+        <f>C57-H57</f>
+        <v/>
+      </c>
+      <c r="L57" s="95">
+        <f>D57-I57</f>
+        <v/>
+      </c>
+      <c r="M57" s="95">
+        <f>E57-J57</f>
+        <v/>
       </c>
       <c r="N57" s="30" t="inlineStr">
         <is>
@@ -28272,13 +28621,13 @@
       <c r="O57" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="P57" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P57" s="95">
+        <f>C57-O57</f>
+        <v/>
+      </c>
+      <c r="Q57" s="96">
+        <f>IF(O57&lt;&gt;0,C57/O57,"-")</f>
+        <v/>
       </c>
       <c r="R57" s="21" t="n"/>
       <c r="S57" s="17" t="n"/>
@@ -28293,7 +28642,7 @@
       <c r="AB57" s="17" t="n"/>
       <c r="AC57" s="17" t="n"/>
     </row>
-    <row r="58" ht="15" customHeight="1">
+    <row r="58" ht="23.25" customHeight="1">
       <c r="A58" s="7" t="n"/>
       <c r="B58" s="30" t="inlineStr">
         <is>
@@ -28301,13 +28650,13 @@
         </is>
       </c>
       <c r="C58" s="32" t="n">
-        <v>127145.92396</v>
+        <v>193963.1666</v>
       </c>
       <c r="D58" s="32" t="n">
-        <v>25518.87821</v>
+        <v>-8534379.330400003</v>
       </c>
       <c r="E58" s="32" t="n">
-        <v>25518.87821</v>
+        <v>133314.21107</v>
       </c>
       <c r="F58" s="33" t="inlineStr">
         <is>
@@ -28316,22 +28665,25 @@
       </c>
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="32" t="n">
-        <v>99379.38352</v>
+        <v>210435.99144</v>
       </c>
       <c r="I58" s="32" t="n">
-        <v>0</v>
+        <v>139184.651</v>
       </c>
       <c r="J58" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" s="95" t="n">
-        <v>27766.54044</v>
-      </c>
-      <c r="L58" s="95" t="n">
-        <v>25518.87821</v>
-      </c>
-      <c r="M58" s="95" t="n">
-        <v>25518.87821</v>
+        <v>139184.651</v>
+      </c>
+      <c r="K58" s="95">
+        <f>C58-H58</f>
+        <v/>
+      </c>
+      <c r="L58" s="95">
+        <f>D58-I58</f>
+        <v/>
+      </c>
+      <c r="M58" s="95">
+        <f>E58-J58</f>
+        <v/>
       </c>
       <c r="N58" s="30" t="inlineStr">
         <is>
@@ -28339,13 +28691,15 @@
         </is>
       </c>
       <c r="O58" s="34" t="n">
-        <v>55916.33298</v>
-      </c>
-      <c r="P58" s="95" t="n">
-        <v>71229.59097999999</v>
-      </c>
-      <c r="Q58" s="96" t="n">
-        <v>2.27386019761842</v>
+        <v>127145.92396</v>
+      </c>
+      <c r="P58" s="95">
+        <f>C58-O58</f>
+        <v/>
+      </c>
+      <c r="Q58" s="96">
+        <f>IF(O58&lt;&gt;0,C58/O58,"-")</f>
+        <v/>
       </c>
       <c r="R58" s="21" t="n"/>
       <c r="S58" s="17" t="n"/>
@@ -28360,7 +28714,7 @@
       <c r="AB58" s="17" t="n"/>
       <c r="AC58" s="17" t="n"/>
     </row>
-    <row r="59" ht="34.5" customHeight="1">
+    <row r="59" ht="68.25" customHeight="1">
       <c r="A59" s="7" t="n"/>
       <c r="B59" s="30" t="inlineStr">
         <is>
@@ -28368,13 +28722,13 @@
         </is>
       </c>
       <c r="C59" s="32" t="n">
-        <v>3462.34957</v>
+        <v>4341.154430000001</v>
       </c>
       <c r="D59" s="32" t="n">
-        <v>253.10315</v>
+        <v>0</v>
       </c>
       <c r="E59" s="32" t="n">
-        <v>0</v>
+        <v>2882.633</v>
       </c>
       <c r="F59" s="33" t="inlineStr">
         <is>
@@ -28383,22 +28737,25 @@
       </c>
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="32" t="n">
-        <v>2763.18587</v>
+        <v>592.24041</v>
       </c>
       <c r="I59" s="32" t="n">
-        <v>252.34782</v>
+        <v>0</v>
       </c>
       <c r="J59" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="K59" s="95" t="n">
-        <v>699.1636999999999</v>
-      </c>
-      <c r="L59" s="95" t="n">
-        <v>0.755329999999987</v>
-      </c>
-      <c r="M59" s="95" t="n">
-        <v>0</v>
+      <c r="K59" s="95">
+        <f>C59-H59</f>
+        <v/>
+      </c>
+      <c r="L59" s="95">
+        <f>D59-I59</f>
+        <v/>
+      </c>
+      <c r="M59" s="95">
+        <f>E59-J59</f>
+        <v/>
       </c>
       <c r="N59" s="30" t="inlineStr">
         <is>
@@ -28406,13 +28763,15 @@
         </is>
       </c>
       <c r="O59" s="34" t="n">
-        <v>1205.37057</v>
-      </c>
-      <c r="P59" s="95" t="n">
-        <v>2256.979</v>
-      </c>
-      <c r="Q59" s="96" t="n">
-        <v>2.8724357937493</v>
+        <v>3462.34957</v>
+      </c>
+      <c r="P59" s="95">
+        <f>C59-O59</f>
+        <v/>
+      </c>
+      <c r="Q59" s="96">
+        <f>IF(O59&lt;&gt;0,C59/O59,"-")</f>
+        <v/>
       </c>
       <c r="R59" s="21" t="n"/>
       <c r="S59" s="17" t="n"/>
@@ -28434,14 +28793,17 @@
           <t>Total:</t>
         </is>
       </c>
-      <c r="C60" s="34" t="n">
-        <v>134140.42461</v>
-      </c>
-      <c r="D60" s="34" t="n">
-        <v>29304.13244</v>
-      </c>
-      <c r="E60" s="34" t="n">
-        <v>29051.02929</v>
+      <c r="C60" s="34">
+        <f>SUM(C55:C59)</f>
+        <v/>
+      </c>
+      <c r="D60" s="34">
+        <f>SUM(D55:D59)</f>
+        <v/>
+      </c>
+      <c r="E60" s="34">
+        <f>SUM(E55:E59)</f>
+        <v/>
       </c>
       <c r="F60" s="33" t="inlineStr">
         <is>
@@ -28449,37 +28811,46 @@
         </is>
       </c>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="34" t="n">
-        <v>105664.17955</v>
-      </c>
-      <c r="I60" s="34" t="n">
-        <v>3773.95798</v>
-      </c>
-      <c r="J60" s="34" t="n">
-        <v>3521.61016</v>
-      </c>
-      <c r="K60" s="95" t="n">
-        <v>28476.24506</v>
-      </c>
-      <c r="L60" s="95" t="n">
-        <v>25530.17446</v>
-      </c>
-      <c r="M60" s="95" t="n">
-        <v>25529.41913</v>
+      <c r="H60" s="34">
+        <f>SUM(H55:H59)</f>
+        <v/>
+      </c>
+      <c r="I60" s="34">
+        <f>SUM(I55:I59)</f>
+        <v/>
+      </c>
+      <c r="J60" s="34">
+        <f>SUM(J55:J59)</f>
+        <v/>
+      </c>
+      <c r="K60" s="34">
+        <f>SUM(K55:K59)</f>
+        <v/>
+      </c>
+      <c r="L60" s="34">
+        <f>SUM(L55:L59)</f>
+        <v/>
+      </c>
+      <c r="M60" s="34">
+        <f>SUM(M55:M59)</f>
+        <v/>
       </c>
       <c r="N60" s="30" t="inlineStr">
         <is>
           <t>Total:</t>
         </is>
       </c>
-      <c r="O60" s="34" t="n">
-        <v>60483.06198</v>
-      </c>
-      <c r="P60" s="95" t="n">
-        <v>73657.36263</v>
-      </c>
-      <c r="Q60" s="96" t="n">
-        <v>2.21781801745349</v>
+      <c r="O60" s="34">
+        <f>SUM(O55:O59)</f>
+        <v/>
+      </c>
+      <c r="P60" s="95">
+        <f>SUM(P55:P59)</f>
+        <v/>
+      </c>
+      <c r="Q60" s="96">
+        <f>IF(O60&lt;&gt;0,C60/O60,"-")</f>
+        <v/>
       </c>
       <c r="R60" s="21" t="n"/>
       <c r="S60" s="17" t="n"/>
@@ -28500,45 +28871,57 @@
           <t>Suppliers, total</t>
         </is>
       </c>
-      <c r="B61" s="35" t="n">
-        <v>134140.42461</v>
+      <c r="B61" s="35">
+        <f>C60</f>
+        <v/>
       </c>
       <c r="C61" s="21" t="n"/>
-      <c r="D61" s="32" t="n">
-        <v>29304.13244</v>
-      </c>
-      <c r="E61" s="32" t="n">
-        <v>29051.02929</v>
-      </c>
-      <c r="F61" s="35" t="n">
-        <v>105664.17955</v>
+      <c r="D61" s="32">
+        <f>D60</f>
+        <v/>
+      </c>
+      <c r="E61" s="32">
+        <f>E60</f>
+        <v/>
+      </c>
+      <c r="F61" s="35">
+        <f>H60</f>
+        <v/>
       </c>
       <c r="G61" s="20" t="n"/>
       <c r="H61" s="21" t="n"/>
-      <c r="I61" s="32" t="n">
-        <v>3773.95798</v>
-      </c>
-      <c r="J61" s="32" t="n">
-        <v>3521.61016</v>
-      </c>
-      <c r="K61" s="98" t="n">
-        <v>28476.24506</v>
-      </c>
-      <c r="L61" s="98" t="n">
-        <v>25530.17446</v>
-      </c>
-      <c r="M61" s="98" t="n">
-        <v>25529.41913</v>
-      </c>
-      <c r="N61" s="35" t="n">
-        <v>60483.06198</v>
+      <c r="I61" s="32">
+        <f>I60</f>
+        <v/>
+      </c>
+      <c r="J61" s="32">
+        <f>J60</f>
+        <v/>
+      </c>
+      <c r="K61" s="98">
+        <f>K60</f>
+        <v/>
+      </c>
+      <c r="L61" s="98">
+        <f>L60</f>
+        <v/>
+      </c>
+      <c r="M61" s="98">
+        <f>M60</f>
+        <v/>
+      </c>
+      <c r="N61" s="35">
+        <f>O60</f>
+        <v/>
       </c>
       <c r="O61" s="21" t="n"/>
-      <c r="P61" s="98" t="n">
-        <v>73657.36263</v>
-      </c>
-      <c r="Q61" s="96" t="n">
-        <v>2.21781801745349</v>
+      <c r="P61" s="98">
+        <f>P60</f>
+        <v/>
+      </c>
+      <c r="Q61" s="96">
+        <f>Q60</f>
+        <v/>
       </c>
       <c r="R61" s="21" t="n"/>
       <c r="S61" s="17" t="n"/>
@@ -28620,45 +29003,57 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B63" s="36" t="n">
-        <v>134140.42461</v>
+      <c r="B63" s="36">
+        <f>C60</f>
+        <v/>
       </c>
       <c r="C63" s="21" t="n"/>
-      <c r="D63" s="34" t="n">
-        <v>29304.13244</v>
-      </c>
-      <c r="E63" s="34" t="n">
-        <v>29051.02929</v>
-      </c>
-      <c r="F63" s="36" t="n">
-        <v>105664.17955</v>
+      <c r="D63" s="34">
+        <f>D60</f>
+        <v/>
+      </c>
+      <c r="E63" s="34">
+        <f>E60</f>
+        <v/>
+      </c>
+      <c r="F63" s="36">
+        <f>H60</f>
+        <v/>
       </c>
       <c r="G63" s="20" t="n"/>
       <c r="H63" s="21" t="n"/>
-      <c r="I63" s="34" t="n">
-        <v>3773.95798</v>
-      </c>
-      <c r="J63" s="34" t="n">
-        <v>3521.61016</v>
-      </c>
-      <c r="K63" s="95" t="n">
-        <v>28476.24506</v>
-      </c>
-      <c r="L63" s="95" t="n">
-        <v>25530.17446</v>
-      </c>
-      <c r="M63" s="95" t="n">
-        <v>25529.41913</v>
-      </c>
-      <c r="N63" s="36" t="n">
-        <v>60483.06198</v>
+      <c r="I63" s="34">
+        <f>I60</f>
+        <v/>
+      </c>
+      <c r="J63" s="34">
+        <f>J60</f>
+        <v/>
+      </c>
+      <c r="K63" s="95">
+        <f>K60</f>
+        <v/>
+      </c>
+      <c r="L63" s="95">
+        <f>L60</f>
+        <v/>
+      </c>
+      <c r="M63" s="95">
+        <f>M60</f>
+        <v/>
+      </c>
+      <c r="N63" s="36">
+        <f>O60</f>
+        <v/>
       </c>
       <c r="O63" s="21" t="n"/>
-      <c r="P63" s="95" t="n">
-        <v>73657.36263</v>
-      </c>
-      <c r="Q63" s="96" t="n">
-        <v>2.21781801745349</v>
+      <c r="P63" s="95">
+        <f>P60</f>
+        <v/>
+      </c>
+      <c r="Q63" s="96">
+        <f>Q60</f>
+        <v/>
       </c>
       <c r="R63" s="21" t="n"/>
       <c r="S63" s="17" t="n"/>
@@ -28742,12 +29137,11 @@
       <c r="D66" s="17" t="n"/>
       <c r="E66" s="17" t="n"/>
       <c r="F66" s="17" t="n"/>
-      <c r="G66" s="17" t="n"/>
+      <c r="G66" s="99" t="n"/>
       <c r="H66" s="17" t="n"/>
       <c r="I66" s="17" t="n"/>
       <c r="J66" s="17" t="n"/>
       <c r="K66" s="17" t="n"/>
-      <c r="L66" s="17" t="n"/>
       <c r="M66" s="17" t="n"/>
       <c r="N66" s="17" t="n"/>
       <c r="O66" s="17" t="n"/>
@@ -28767,67 +29161,68 @@
       <c r="AC66" s="17" t="n"/>
     </row>
     <row r="67" ht="31" customHeight="1">
-      <c r="A67" s="99" t="inlineStr">
+      <c r="A67" s="100" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
       <c r="B67" s="3" t="n"/>
-      <c r="C67" s="99" t="inlineStr">
+      <c r="C67" s="100" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="D67" s="99" t="inlineStr">
-        <is>
-          <t>Plan January 2024</t>
-        </is>
-      </c>
-      <c r="E67" s="99" t="inlineStr">
-        <is>
-          <t>Fact  January 2024</t>
-        </is>
-      </c>
-      <c r="F67" s="99" t="inlineStr">
-        <is>
-          <t>Fact January 2023</t>
-        </is>
-      </c>
-      <c r="G67" s="100">
-        <f>G87</f>
-        <v/>
+      <c r="D67" s="100" t="inlineStr">
+        <is>
+          <t>Plan January 25</t>
+        </is>
+      </c>
+      <c r="E67" s="100" t="inlineStr">
+        <is>
+          <t>Fact January 25</t>
+        </is>
+      </c>
+      <c r="F67" s="100" t="inlineStr">
+        <is>
+          <t>Fact January 24</t>
+        </is>
+      </c>
+      <c r="G67" s="101" t="inlineStr">
+        <is>
+          <t>Fact January 25 / Plan January 25</t>
+        </is>
       </c>
       <c r="H67" s="21" t="n"/>
-      <c r="I67" s="99" t="inlineStr">
-        <is>
-          <t>Fact December 2023/Fact December 2022</t>
+      <c r="I67" s="100" t="inlineStr">
+        <is>
+          <t>Fact January 25 / Fact January 24</t>
         </is>
       </c>
       <c r="J67" s="21" t="n"/>
-      <c r="K67" s="99" t="inlineStr">
-        <is>
-          <t>01m. 2024 plan</t>
-        </is>
-      </c>
-      <c r="L67" s="99" t="inlineStr">
-        <is>
-          <t>01m.2024 fact</t>
-        </is>
-      </c>
-      <c r="M67" s="99" t="inlineStr">
-        <is>
-          <t>01m. 2023 fact</t>
-        </is>
-      </c>
-      <c r="N67" s="99" t="inlineStr">
-        <is>
-          <t>Fact 01m. 2024/Plan 01m.2024</t>
+      <c r="K67" s="100" t="inlineStr">
+        <is>
+          <t>Plan 1m.2025</t>
+        </is>
+      </c>
+      <c r="L67" s="100" t="inlineStr">
+        <is>
+          <t>Fact 1m.2025</t>
+        </is>
+      </c>
+      <c r="M67" s="100" t="inlineStr">
+        <is>
+          <t>Fact 1m.2025</t>
+        </is>
+      </c>
+      <c r="N67" s="100" t="inlineStr">
+        <is>
+          <t>Fact 1m.2025 / Plan 1m.2025</t>
         </is>
       </c>
       <c r="O67" s="21" t="n"/>
-      <c r="P67" s="99" t="inlineStr">
-        <is>
-          <t>Fact01m. 2024/Fact 01m.2023</t>
+      <c r="P67" s="100" t="inlineStr">
+        <is>
+          <t>Fact 1m.2025 / Fact 1m.2025</t>
         </is>
       </c>
       <c r="Q67" s="21" t="n"/>
@@ -28844,29 +29239,29 @@
       <c r="AB67" s="17" t="n"/>
       <c r="AC67" s="17" t="n"/>
     </row>
-    <row r="68" ht="15" customHeight="1">
+    <row r="68">
       <c r="A68" s="8" t="n"/>
       <c r="B68" s="9" t="n"/>
       <c r="C68" s="10" t="n"/>
       <c r="D68" s="10" t="n"/>
       <c r="E68" s="10" t="n"/>
       <c r="F68" s="10" t="n"/>
-      <c r="G68" s="101" t="inlineStr">
+      <c r="G68" s="102" t="inlineStr">
         <is>
           <t>+/-</t>
         </is>
       </c>
-      <c r="H68" s="101" t="inlineStr">
+      <c r="H68" s="102" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I68" s="101" t="inlineStr">
+      <c r="I68" s="102" t="inlineStr">
         <is>
           <t>+/-</t>
         </is>
       </c>
-      <c r="J68" s="101" t="inlineStr">
+      <c r="J68" s="102" t="inlineStr">
         <is>
           <t>%</t>
         </is>
@@ -28874,22 +29269,22 @@
       <c r="K68" s="10" t="n"/>
       <c r="L68" s="10" t="n"/>
       <c r="M68" s="10" t="n"/>
-      <c r="N68" s="101" t="inlineStr">
+      <c r="N68" s="102" t="inlineStr">
         <is>
           <t>+/-</t>
         </is>
       </c>
-      <c r="O68" s="101" t="inlineStr">
+      <c r="O68" s="102" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="P68" s="101" t="inlineStr">
+      <c r="P68" s="102" t="inlineStr">
         <is>
           <t>+/-</t>
         </is>
       </c>
-      <c r="Q68" s="101" t="inlineStr">
+      <c r="Q68" s="102" t="inlineStr">
         <is>
           <t>%</t>
         </is>
@@ -28907,7 +29302,7 @@
       <c r="AB68" s="17" t="n"/>
       <c r="AC68" s="17" t="n"/>
     </row>
-    <row r="69" ht="15" customHeight="1">
+    <row r="69">
       <c r="A69" s="55" t="inlineStr">
         <is>
           <t>Revenues from sale of goods</t>
@@ -28922,44 +29317,54 @@
       <c r="D69" s="69" t="n">
         <v>52111407.1191667</v>
       </c>
-      <c r="E69" s="69" t="n">
+      <c r="E69" s="69">
+        <f>SUM(E70:E72)</f>
+        <v/>
+      </c>
+      <c r="F69" s="69" t="n">
         <v>56480927.44</v>
       </c>
-      <c r="F69" s="69" t="n">
-        <v>31797551.87</v>
-      </c>
-      <c r="G69" s="69" t="n">
-        <v>4369520.32083333</v>
-      </c>
-      <c r="H69" s="59" t="n">
-        <v>1.08384959382964</v>
-      </c>
-      <c r="I69" s="69" t="n">
-        <v>24683375.57</v>
-      </c>
-      <c r="J69" s="59" t="n">
-        <v>1.77626653998127</v>
-      </c>
-      <c r="K69" s="69" t="n">
-        <v>52111407.1191667</v>
+      <c r="G69" s="69">
+        <f>E69-D69</f>
+        <v/>
+      </c>
+      <c r="H69" s="59">
+        <f>E69/D69</f>
+        <v/>
+      </c>
+      <c r="I69" s="69">
+        <f>E69-F69</f>
+        <v/>
+      </c>
+      <c r="J69" s="59">
+        <f>E69/F69</f>
+        <v/>
+      </c>
+      <c r="K69" s="69">
+        <f>SUM(K70:K72)</f>
+        <v/>
       </c>
       <c r="L69" s="69" t="n">
         <v>56480927.44</v>
       </c>
       <c r="M69" s="69" t="n">
-        <v>31797551.87</v>
-      </c>
-      <c r="N69" s="69" t="n">
-        <v>4369520.32083333</v>
-      </c>
-      <c r="O69" s="59" t="n">
-        <v>1.08384959382964</v>
-      </c>
-      <c r="P69" s="69" t="n">
-        <v>24683375.57</v>
-      </c>
-      <c r="Q69" s="59" t="n">
-        <v>1.77626653998127</v>
+        <v>52111407.1191667</v>
+      </c>
+      <c r="N69" s="69">
+        <f>L69-K69</f>
+        <v/>
+      </c>
+      <c r="O69" s="59">
+        <f>L69/K69</f>
+        <v/>
+      </c>
+      <c r="P69" s="69">
+        <f>L69-M69</f>
+        <v/>
+      </c>
+      <c r="Q69" s="59">
+        <f>L69/M69</f>
+        <v/>
       </c>
       <c r="R69" s="17" t="n"/>
       <c r="S69" s="17" t="n"/>
@@ -28974,7 +29379,7 @@
       <c r="AB69" s="17" t="n"/>
       <c r="AC69" s="17" t="n"/>
     </row>
-    <row r="70" ht="15" customHeight="1">
+    <row r="70">
       <c r="A70" s="55" t="inlineStr">
         <is>
           <t>CPL</t>
@@ -28990,43 +29395,51 @@
         <v>19119614.3333333</v>
       </c>
       <c r="E70" s="64" t="n">
+        <v>24717198.63</v>
+      </c>
+      <c r="F70" s="64" t="n">
         <v>20168229.13</v>
       </c>
-      <c r="F70" s="64" t="n">
-        <v>21694717.83</v>
-      </c>
-      <c r="G70" s="64" t="n">
-        <v>1048614.79666667</v>
-      </c>
-      <c r="H70" s="60" t="n">
-        <v>1.05484497638838</v>
-      </c>
-      <c r="I70" s="69" t="n">
-        <v>-1526488.7</v>
-      </c>
-      <c r="J70" s="59" t="n">
-        <v>0.929637771186444</v>
+      <c r="G70" s="64">
+        <f>E70-F70</f>
+        <v/>
+      </c>
+      <c r="H70" s="60">
+        <f>E70/D70</f>
+        <v/>
+      </c>
+      <c r="I70" s="64">
+        <f>E70-F70</f>
+        <v/>
+      </c>
+      <c r="J70" s="60">
+        <f>E70/F70</f>
+        <v/>
       </c>
       <c r="K70" s="64" t="n">
         <v>19119614.3333333</v>
       </c>
       <c r="L70" s="64" t="n">
-        <v>20168229.13</v>
+        <v>24717198.63</v>
       </c>
       <c r="M70" s="64" t="n">
-        <v>21694717.83</v>
-      </c>
-      <c r="N70" s="64" t="n">
-        <v>1048614.79666667</v>
-      </c>
-      <c r="O70" s="60" t="n">
-        <v>1.05484497638838</v>
-      </c>
-      <c r="P70" s="64" t="n">
-        <v>-1526488.7</v>
-      </c>
-      <c r="Q70" s="60" t="n">
-        <v>0.929637771186444</v>
+        <v>19119614.3333333</v>
+      </c>
+      <c r="N70" s="64">
+        <f>L70-K70</f>
+        <v/>
+      </c>
+      <c r="O70" s="60">
+        <f>L70/K70</f>
+        <v/>
+      </c>
+      <c r="P70" s="64">
+        <f>L70-M70</f>
+        <v/>
+      </c>
+      <c r="Q70" s="60">
+        <f>L70/M70</f>
+        <v/>
       </c>
       <c r="R70" s="17" t="n"/>
       <c r="S70" s="17" t="n"/>
@@ -29041,7 +29454,7 @@
       <c r="AB70" s="17" t="n"/>
       <c r="AC70" s="17" t="n"/>
     </row>
-    <row r="71" ht="15" customHeight="1">
+    <row r="71">
       <c r="A71" s="55" t="inlineStr">
         <is>
           <t>PA6</t>
@@ -29057,43 +29470,51 @@
         <v>32032821.3333333</v>
       </c>
       <c r="E71" s="64" t="n">
+        <v>8540477.48</v>
+      </c>
+      <c r="F71" s="64" t="n">
         <v>35329356.39</v>
       </c>
-      <c r="F71" s="64" t="n">
-        <v>9179555.32</v>
-      </c>
-      <c r="G71" s="64" t="n">
-        <v>3296535.05666667</v>
-      </c>
-      <c r="H71" s="60" t="n">
-        <v>1.10291116796622</v>
-      </c>
-      <c r="I71" s="69" t="n">
-        <v>26149801.07</v>
-      </c>
-      <c r="J71" s="59" t="n">
-        <v>3.84870019934691</v>
+      <c r="G71" s="64">
+        <f>E71-D71</f>
+        <v/>
+      </c>
+      <c r="H71" s="60">
+        <f>E71/D71</f>
+        <v/>
+      </c>
+      <c r="I71" s="64">
+        <f>E71-F71</f>
+        <v/>
+      </c>
+      <c r="J71" s="60">
+        <f>E71/F71</f>
+        <v/>
       </c>
       <c r="K71" s="64" t="n">
         <v>32032821.3333333</v>
       </c>
       <c r="L71" s="64" t="n">
-        <v>35329356.39</v>
+        <v>8540477.48</v>
       </c>
       <c r="M71" s="64" t="n">
-        <v>9179555.32</v>
-      </c>
-      <c r="N71" s="64" t="n">
-        <v>3296535.05666667</v>
-      </c>
-      <c r="O71" s="60" t="n">
-        <v>1.10291116796622</v>
-      </c>
-      <c r="P71" s="64" t="n">
-        <v>26149801.07</v>
-      </c>
-      <c r="Q71" s="60" t="n">
-        <v>3.84870019934691</v>
+        <v>32032821.3333333</v>
+      </c>
+      <c r="N71" s="64">
+        <f>L71-K71</f>
+        <v/>
+      </c>
+      <c r="O71" s="60">
+        <f>L71/K71</f>
+        <v/>
+      </c>
+      <c r="P71" s="64">
+        <f>L71-M71</f>
+        <v/>
+      </c>
+      <c r="Q71" s="60">
+        <f>L71/M71</f>
+        <v/>
       </c>
       <c r="R71" s="17" t="n"/>
       <c r="S71" s="17" t="n"/>
@@ -29124,43 +29545,51 @@
         <v>958971.4525</v>
       </c>
       <c r="E72" s="64" t="n">
+        <v>932867.3200000003</v>
+      </c>
+      <c r="F72" s="64" t="n">
         <v>983341.92</v>
       </c>
-      <c r="F72" s="64" t="n">
-        <v>923278.72</v>
-      </c>
-      <c r="G72" s="64" t="n">
-        <v>24370.4675</v>
-      </c>
-      <c r="H72" s="60" t="n">
-        <v>1.02541313136743</v>
-      </c>
-      <c r="I72" s="69" t="n">
-        <v>60063.2000000001</v>
-      </c>
-      <c r="J72" s="59" t="n">
-        <v>1.06505424494133</v>
+      <c r="G72" s="64">
+        <f>E72-D72</f>
+        <v/>
+      </c>
+      <c r="H72" s="60">
+        <f>E72/D72</f>
+        <v/>
+      </c>
+      <c r="I72" s="64">
+        <f>E72-F72</f>
+        <v/>
+      </c>
+      <c r="J72" s="60">
+        <f>E72/F72</f>
+        <v/>
       </c>
       <c r="K72" s="64" t="n">
         <v>958971.4525</v>
       </c>
       <c r="L72" s="64" t="n">
-        <v>983341.92</v>
+        <v>932867.3200000003</v>
       </c>
       <c r="M72" s="64" t="n">
-        <v>923278.72</v>
-      </c>
-      <c r="N72" s="64" t="n">
-        <v>24370.4675</v>
-      </c>
-      <c r="O72" s="60" t="n">
-        <v>1.02541313136743</v>
-      </c>
-      <c r="P72" s="64" t="n">
-        <v>60063.2000000001</v>
-      </c>
-      <c r="Q72" s="60" t="n">
-        <v>1.06505424494133</v>
+        <v>958971.4525</v>
+      </c>
+      <c r="N72" s="64">
+        <f>L72-K72</f>
+        <v/>
+      </c>
+      <c r="O72" s="60">
+        <f>L72/K72</f>
+        <v/>
+      </c>
+      <c r="P72" s="64">
+        <f>L72-M72</f>
+        <v/>
+      </c>
+      <c r="Q72" s="60">
+        <f>L72/M72</f>
+        <v/>
       </c>
       <c r="R72" s="17" t="n"/>
       <c r="S72" s="17" t="n"/>
@@ -29171,11 +29600,10 @@
       <c r="X72" s="17" t="n"/>
       <c r="Y72" s="17" t="n"/>
       <c r="Z72" s="17" t="n"/>
-      <c r="AA72" s="17" t="n"/>
       <c r="AB72" s="17" t="n"/>
       <c r="AC72" s="17" t="n"/>
     </row>
-    <row r="73" ht="15" customHeight="1">
+    <row r="73">
       <c r="A73" s="55" t="inlineStr">
         <is>
           <t>Expenses for the sale of goods incl:</t>
@@ -29190,44 +29618,54 @@
       <c r="D73" s="69" t="n">
         <v>50908946.4396988</v>
       </c>
-      <c r="E73" s="69" t="n">
+      <c r="E73" s="69">
+        <f>SUM(E74:E79)</f>
+        <v/>
+      </c>
+      <c r="F73" s="69" t="n">
         <v>53199016.02</v>
       </c>
-      <c r="F73" s="69" t="n">
-        <v>31176814</v>
-      </c>
-      <c r="G73" s="69" t="n">
-        <v>2290069.58030119</v>
-      </c>
-      <c r="H73" s="59" t="n">
-        <v>1.04498363726725</v>
-      </c>
-      <c r="I73" s="69" t="n">
-        <v>22022202.02</v>
-      </c>
-      <c r="J73" s="59" t="n">
-        <v>1.70636473694843</v>
-      </c>
-      <c r="K73" s="69" t="n">
-        <v>50908946.4396988</v>
+      <c r="G73" s="69">
+        <f>E73-D73</f>
+        <v/>
+      </c>
+      <c r="H73" s="59">
+        <f>E73/D73</f>
+        <v/>
+      </c>
+      <c r="I73" s="69">
+        <f>E73-F73</f>
+        <v/>
+      </c>
+      <c r="J73" s="59">
+        <f>E73/F73</f>
+        <v/>
+      </c>
+      <c r="K73" s="69">
+        <f>SUM(K74:K79)</f>
+        <v/>
       </c>
       <c r="L73" s="69" t="n">
         <v>53199016.02</v>
       </c>
       <c r="M73" s="69" t="n">
-        <v>31176814</v>
-      </c>
-      <c r="N73" s="69" t="n">
-        <v>2290069.58030119</v>
-      </c>
-      <c r="O73" s="59" t="n">
-        <v>1.04498363726725</v>
-      </c>
-      <c r="P73" s="69" t="n">
-        <v>22022202.02</v>
-      </c>
-      <c r="Q73" s="59" t="n">
-        <v>1.70636473694843</v>
+        <v>50908946.4396988</v>
+      </c>
+      <c r="N73" s="69">
+        <f>L73-K73</f>
+        <v/>
+      </c>
+      <c r="O73" s="59">
+        <f>L73/K73</f>
+        <v/>
+      </c>
+      <c r="P73" s="69">
+        <f>L73-M73</f>
+        <v/>
+      </c>
+      <c r="Q73" s="59">
+        <f>L73/M73</f>
+        <v/>
       </c>
       <c r="R73" s="17" t="n"/>
       <c r="S73" s="17" t="n"/>
@@ -29242,7 +29680,7 @@
       <c r="AB73" s="17" t="n"/>
       <c r="AC73" s="17" t="n"/>
     </row>
-    <row r="74" ht="15" customHeight="1">
+    <row r="74">
       <c r="A74" s="55" t="inlineStr">
         <is>
           <t>Cost of goods</t>
@@ -29258,43 +29696,51 @@
         <v>47766210.3715097</v>
       </c>
       <c r="E74" s="64" t="n">
+        <v>32209679.16</v>
+      </c>
+      <c r="F74" s="64" t="n">
         <v>50259080.46</v>
       </c>
-      <c r="F74" s="64" t="n">
-        <v>30535165.79</v>
-      </c>
-      <c r="G74" s="64" t="n">
-        <v>2492870.08849028</v>
-      </c>
-      <c r="H74" s="60" t="n">
-        <v>1.05218898608664</v>
-      </c>
-      <c r="I74" s="69" t="n">
-        <v>19723914.67</v>
-      </c>
-      <c r="J74" s="59" t="n">
-        <v>1.64594097198121</v>
+      <c r="G74" s="64">
+        <f>E74-D74</f>
+        <v/>
+      </c>
+      <c r="H74" s="60">
+        <f>E74/D74</f>
+        <v/>
+      </c>
+      <c r="I74" s="64">
+        <f>E74-F74</f>
+        <v/>
+      </c>
+      <c r="J74" s="60">
+        <f>E74/F74</f>
+        <v/>
       </c>
       <c r="K74" s="64" t="n">
         <v>47766210.3715097</v>
       </c>
       <c r="L74" s="64" t="n">
-        <v>50259080.46</v>
+        <v>32209679.16</v>
       </c>
       <c r="M74" s="64" t="n">
-        <v>30535165.79</v>
-      </c>
-      <c r="N74" s="64" t="n">
-        <v>2492870.08849028</v>
-      </c>
-      <c r="O74" s="60" t="n">
-        <v>1.05218898608664</v>
-      </c>
-      <c r="P74" s="64" t="n">
-        <v>19723914.67</v>
-      </c>
-      <c r="Q74" s="60" t="n">
-        <v>1.64594097198121</v>
+        <v>47766210.3715097</v>
+      </c>
+      <c r="N74" s="64">
+        <f>L74-K74</f>
+        <v/>
+      </c>
+      <c r="O74" s="60">
+        <f>L74/K74</f>
+        <v/>
+      </c>
+      <c r="P74" s="64">
+        <f>L74-M74</f>
+        <v/>
+      </c>
+      <c r="Q74" s="60">
+        <f>L74/M74</f>
+        <v/>
       </c>
       <c r="R74" s="17" t="n"/>
       <c r="S74" s="17" t="n"/>
@@ -29328,19 +29774,23 @@
         <v>0</v>
       </c>
       <c r="F75" s="64" t="n">
-        <v>1085.7</v>
-      </c>
-      <c r="G75" s="64" t="n">
-        <v>-319.07375</v>
-      </c>
-      <c r="H75" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" s="69" t="n">
-        <v>-1085.7</v>
-      </c>
-      <c r="J75" s="59" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G75" s="64">
+        <f>E75-D75</f>
+        <v/>
+      </c>
+      <c r="H75" s="60">
+        <f>E75/D75</f>
+        <v/>
+      </c>
+      <c r="I75" s="64">
+        <f>E75-F75</f>
+        <v/>
+      </c>
+      <c r="J75" s="60">
+        <f>E75/F75</f>
+        <v/>
       </c>
       <c r="K75" s="64" t="n">
         <v>319.07375</v>
@@ -29349,19 +29799,23 @@
         <v>0</v>
       </c>
       <c r="M75" s="64" t="n">
-        <v>1085.7</v>
-      </c>
-      <c r="N75" s="64" t="n">
-        <v>-319.07375</v>
-      </c>
-      <c r="O75" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" s="64" t="n">
-        <v>-1085.7</v>
-      </c>
-      <c r="Q75" s="60" t="n">
-        <v>0</v>
+        <v>319.07375</v>
+      </c>
+      <c r="N75" s="64">
+        <f>L75-K75</f>
+        <v/>
+      </c>
+      <c r="O75" s="60">
+        <f>L75/K75</f>
+        <v/>
+      </c>
+      <c r="P75" s="64">
+        <f>L75-M75</f>
+        <v/>
+      </c>
+      <c r="Q75" s="60">
+        <f>L75/M75</f>
+        <v/>
       </c>
       <c r="R75" s="17" t="n"/>
       <c r="S75" s="17" t="n"/>
@@ -29392,43 +29846,51 @@
         <v>2652406.54900391</v>
       </c>
       <c r="E76" s="64" t="n">
+        <v>2523994.39</v>
+      </c>
+      <c r="F76" s="64" t="n">
         <v>2328769.95</v>
       </c>
-      <c r="F76" s="64" t="n">
-        <v>202451.7</v>
-      </c>
-      <c r="G76" s="64" t="n">
-        <v>-323636.599003915</v>
-      </c>
-      <c r="H76" s="60" t="n">
-        <v>0.877983788297667</v>
-      </c>
-      <c r="I76" s="69" t="n">
-        <v>2126318.25</v>
-      </c>
-      <c r="J76" s="59" t="n">
-        <v>11.5028421593891</v>
+      <c r="G76" s="64">
+        <f>E76-D76</f>
+        <v/>
+      </c>
+      <c r="H76" s="60">
+        <f>E76/D76</f>
+        <v/>
+      </c>
+      <c r="I76" s="64">
+        <f>E76-F76</f>
+        <v/>
+      </c>
+      <c r="J76" s="60">
+        <f>E76/F76</f>
+        <v/>
       </c>
       <c r="K76" s="64" t="n">
         <v>2652406.54900391</v>
       </c>
       <c r="L76" s="64" t="n">
-        <v>2328769.95</v>
+        <v>2523994.39</v>
       </c>
       <c r="M76" s="64" t="n">
-        <v>202451.7</v>
-      </c>
-      <c r="N76" s="64" t="n">
-        <v>-323636.599003915</v>
-      </c>
-      <c r="O76" s="60" t="n">
-        <v>0.877983788297667</v>
-      </c>
-      <c r="P76" s="64" t="n">
-        <v>2126318.25</v>
-      </c>
-      <c r="Q76" s="60" t="n">
-        <v>11.5028421593891</v>
+        <v>2652406.54900391</v>
+      </c>
+      <c r="N76" s="64">
+        <f>L76-K76</f>
+        <v/>
+      </c>
+      <c r="O76" s="60">
+        <f>L76/K76</f>
+        <v/>
+      </c>
+      <c r="P76" s="64">
+        <f>L76-M76</f>
+        <v/>
+      </c>
+      <c r="Q76" s="60">
+        <f>L76/M76</f>
+        <v/>
       </c>
       <c r="R76" s="17" t="n"/>
       <c r="S76" s="17" t="n"/>
@@ -29459,43 +29921,51 @@
         <v>244630.125333333</v>
       </c>
       <c r="E77" s="64" t="n">
+        <v>395221.76</v>
+      </c>
+      <c r="F77" s="64" t="n">
         <v>362655.48</v>
       </c>
-      <c r="F77" s="64" t="n">
-        <v>349336.8</v>
-      </c>
-      <c r="G77" s="64" t="n">
-        <v>118025.354666667</v>
-      </c>
-      <c r="H77" s="60" t="n">
-        <v>1.48246451456396</v>
-      </c>
-      <c r="I77" s="69" t="n">
-        <v>13318.68</v>
-      </c>
-      <c r="J77" s="59" t="n">
-        <v>1.03812561402062</v>
+      <c r="G77" s="64">
+        <f>E77-D77</f>
+        <v/>
+      </c>
+      <c r="H77" s="60">
+        <f>E77/D77</f>
+        <v/>
+      </c>
+      <c r="I77" s="64">
+        <f>E77-F77</f>
+        <v/>
+      </c>
+      <c r="J77" s="60">
+        <f>E77/F77</f>
+        <v/>
       </c>
       <c r="K77" s="64" t="n">
         <v>244630.125333333</v>
       </c>
       <c r="L77" s="64" t="n">
-        <v>362655.48</v>
+        <v>395221.76</v>
       </c>
       <c r="M77" s="64" t="n">
-        <v>349336.8</v>
-      </c>
-      <c r="N77" s="64" t="n">
-        <v>118025.354666667</v>
-      </c>
-      <c r="O77" s="60" t="n">
-        <v>1.48246451456396</v>
-      </c>
-      <c r="P77" s="64" t="n">
-        <v>13318.68</v>
-      </c>
-      <c r="Q77" s="60" t="n">
-        <v>1.03812561402062</v>
+        <v>244630.125333333</v>
+      </c>
+      <c r="N77" s="64">
+        <f>L77-K77</f>
+        <v/>
+      </c>
+      <c r="O77" s="60">
+        <f>L77/K77</f>
+        <v/>
+      </c>
+      <c r="P77" s="64">
+        <f>L77-M77</f>
+        <v/>
+      </c>
+      <c r="Q77" s="60">
+        <f>L77/M77</f>
+        <v/>
       </c>
       <c r="R77" s="17" t="n"/>
       <c r="S77" s="17" t="n"/>
@@ -29526,43 +29996,51 @@
         <v>103350.23065</v>
       </c>
       <c r="E78" s="64" t="n">
+        <v>141451.5599999999</v>
+      </c>
+      <c r="F78" s="64" t="n">
         <v>64840.6800000001</v>
       </c>
-      <c r="F78" s="64" t="n">
-        <v>60452.9000000001</v>
-      </c>
-      <c r="G78" s="64" t="n">
-        <v>-38509.55065</v>
-      </c>
-      <c r="H78" s="60" t="n">
-        <v>0.627387859632223</v>
-      </c>
-      <c r="I78" s="69" t="n">
-        <v>4387.77999999997</v>
-      </c>
-      <c r="J78" s="59" t="n">
-        <v>1.07258179508344</v>
+      <c r="G78" s="64">
+        <f>E78-D78</f>
+        <v/>
+      </c>
+      <c r="H78" s="60">
+        <f>E78/D78</f>
+        <v/>
+      </c>
+      <c r="I78" s="64">
+        <f>E78-F78</f>
+        <v/>
+      </c>
+      <c r="J78" s="60">
+        <f>E78/F78</f>
+        <v/>
       </c>
       <c r="K78" s="64" t="n">
         <v>103350.23065</v>
       </c>
       <c r="L78" s="64" t="n">
-        <v>64840.6800000001</v>
+        <v>141451.5599999999</v>
       </c>
       <c r="M78" s="64" t="n">
-        <v>60452.9000000001</v>
-      </c>
-      <c r="N78" s="64" t="n">
-        <v>-38509.55065</v>
-      </c>
-      <c r="O78" s="60" t="n">
-        <v>0.627387859632223</v>
-      </c>
-      <c r="P78" s="64" t="n">
-        <v>4387.77999999997</v>
-      </c>
-      <c r="Q78" s="60" t="n">
-        <v>1.07258179508344</v>
+        <v>103350.23065</v>
+      </c>
+      <c r="N78" s="64">
+        <f>L78-K78</f>
+        <v/>
+      </c>
+      <c r="O78" s="60">
+        <f>L78/K78</f>
+        <v/>
+      </c>
+      <c r="P78" s="64">
+        <f>L78-M78</f>
+        <v/>
+      </c>
+      <c r="Q78" s="60">
+        <f>L78/M78</f>
+        <v/>
       </c>
       <c r="R78" s="17" t="n"/>
       <c r="S78" s="17" t="n"/>
@@ -29593,43 +30071,51 @@
         <v>142030.089451852</v>
       </c>
       <c r="E79" s="64" t="n">
+        <v>3244.99</v>
+      </c>
+      <c r="F79" s="64" t="n">
         <v>183669.45</v>
       </c>
-      <c r="F79" s="64" t="n">
-        <v>28321.11</v>
-      </c>
-      <c r="G79" s="64" t="n">
-        <v>41639.3605481481</v>
-      </c>
-      <c r="H79" s="60" t="n">
-        <v>1.29317281083783</v>
-      </c>
-      <c r="I79" s="69" t="n">
-        <v>155348.34</v>
-      </c>
-      <c r="J79" s="59" t="n">
-        <v>6.48524898918157</v>
+      <c r="G79" s="64">
+        <f>E79-D79</f>
+        <v/>
+      </c>
+      <c r="H79" s="60">
+        <f>E79/D79</f>
+        <v/>
+      </c>
+      <c r="I79" s="64">
+        <f>E79-F79</f>
+        <v/>
+      </c>
+      <c r="J79" s="60">
+        <f>E79/F79</f>
+        <v/>
       </c>
       <c r="K79" s="64" t="n">
         <v>142030.089451852</v>
       </c>
       <c r="L79" s="64" t="n">
-        <v>183669.45</v>
+        <v>3244.99</v>
       </c>
       <c r="M79" s="64" t="n">
-        <v>28321.11</v>
-      </c>
-      <c r="N79" s="64" t="n">
-        <v>41639.3605481481</v>
-      </c>
-      <c r="O79" s="60" t="n">
-        <v>1.29317281083783</v>
-      </c>
-      <c r="P79" s="64" t="n">
-        <v>155348.34</v>
-      </c>
-      <c r="Q79" s="60" t="n">
-        <v>6.48524898918157</v>
+        <v>142030.089451852</v>
+      </c>
+      <c r="N79" s="64">
+        <f>L79-K79</f>
+        <v/>
+      </c>
+      <c r="O79" s="60">
+        <f>L79/K79</f>
+        <v/>
+      </c>
+      <c r="P79" s="64">
+        <f>L79-M79</f>
+        <v/>
+      </c>
+      <c r="Q79" s="60">
+        <f>L79/M79</f>
+        <v/>
       </c>
       <c r="R79" s="17" t="n"/>
       <c r="S79" s="17" t="n"/>
@@ -29660,43 +30146,51 @@
         <v>-30660.4557979019</v>
       </c>
       <c r="E80" s="64" t="n">
+        <v>-235576.44</v>
+      </c>
+      <c r="F80" s="64" t="n">
         <v>426110.93</v>
       </c>
-      <c r="F80" s="64" t="n">
-        <v>1804082.41</v>
-      </c>
-      <c r="G80" s="64" t="n">
-        <v>456771.385797902</v>
-      </c>
-      <c r="H80" s="60" t="n">
-        <v>-13.8977363157517</v>
-      </c>
-      <c r="I80" s="69" t="n">
-        <v>-1377971.48</v>
-      </c>
-      <c r="J80" s="59" t="n">
-        <v>0.236192608296647</v>
+      <c r="G80" s="64">
+        <f>E80-D80</f>
+        <v/>
+      </c>
+      <c r="H80" s="60">
+        <f>E80/D80</f>
+        <v/>
+      </c>
+      <c r="I80" s="64">
+        <f>E80-F80</f>
+        <v/>
+      </c>
+      <c r="J80" s="60">
+        <f>E80/F80</f>
+        <v/>
       </c>
       <c r="K80" s="64" t="n">
         <v>-30660.4557979019</v>
       </c>
       <c r="L80" s="64" t="n">
-        <v>426110.93</v>
+        <v>-235576.44</v>
       </c>
       <c r="M80" s="64" t="n">
-        <v>1804082.41</v>
-      </c>
-      <c r="N80" s="64" t="n">
-        <v>456771.385797902</v>
-      </c>
-      <c r="O80" s="60" t="n">
-        <v>-13.8977363157517</v>
-      </c>
-      <c r="P80" s="64" t="n">
-        <v>-1377971.48</v>
-      </c>
-      <c r="Q80" s="60" t="n">
-        <v>0.236192608296647</v>
+        <v>-30660.4557979019</v>
+      </c>
+      <c r="N80" s="64">
+        <f>L80-K80</f>
+        <v/>
+      </c>
+      <c r="O80" s="60">
+        <f>L80/K80</f>
+        <v/>
+      </c>
+      <c r="P80" s="64">
+        <f>L80-M80</f>
+        <v/>
+      </c>
+      <c r="Q80" s="60">
+        <f>L80/M80</f>
+        <v/>
       </c>
       <c r="R80" s="17" t="n"/>
       <c r="S80" s="17" t="n"/>
@@ -29727,43 +30221,51 @@
         <v>1171800.22366995</v>
       </c>
       <c r="E81" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="69" t="n">
         <v>3708022.34999999</v>
       </c>
-      <c r="F81" s="69" t="n">
-        <v>2424820.28</v>
-      </c>
-      <c r="G81" s="69" t="n">
-        <v>2536222.12633005</v>
-      </c>
-      <c r="H81" s="59" t="n">
-        <v>3.16438098841361</v>
-      </c>
-      <c r="I81" s="69" t="n">
-        <v>1283202.06999999</v>
-      </c>
-      <c r="J81" s="59" t="n">
-        <v>1.52919471211285</v>
+      <c r="G81" s="69">
+        <f>E81-D81</f>
+        <v/>
+      </c>
+      <c r="H81" s="59">
+        <f>E81/D81</f>
+        <v/>
+      </c>
+      <c r="I81" s="69">
+        <f>E81-F81</f>
+        <v/>
+      </c>
+      <c r="J81" s="59">
+        <f>E81/F81</f>
+        <v/>
       </c>
       <c r="K81" s="69" t="n">
         <v>1171800.22366995</v>
       </c>
       <c r="L81" s="69" t="n">
-        <v>3708022.34999999</v>
+        <v>0</v>
       </c>
       <c r="M81" s="69" t="n">
-        <v>2424820.28</v>
-      </c>
-      <c r="N81" s="69" t="n">
-        <v>2536222.12633005</v>
-      </c>
-      <c r="O81" s="59" t="n">
-        <v>3.16438098841361</v>
-      </c>
-      <c r="P81" s="69" t="n">
-        <v>1283202.06999999</v>
-      </c>
-      <c r="Q81" s="59" t="n">
-        <v>1.52919471211285</v>
+        <v>1171800.22366995</v>
+      </c>
+      <c r="N81" s="69">
+        <f>L81-K81</f>
+        <v/>
+      </c>
+      <c r="O81" s="59">
+        <f>L81/K81</f>
+        <v/>
+      </c>
+      <c r="P81" s="69">
+        <f>L81-M81</f>
+        <v/>
+      </c>
+      <c r="Q81" s="59">
+        <f>L81/M81</f>
+        <v/>
       </c>
       <c r="R81" s="17" t="n"/>
       <c r="S81" s="17" t="n"/>
@@ -29787,7 +30289,7 @@
       <c r="F82" s="17" t="n"/>
       <c r="G82" s="17" t="n"/>
       <c r="H82" s="17" t="n"/>
-      <c r="I82" s="102" t="n"/>
+      <c r="I82" s="103" t="n"/>
       <c r="J82" s="17" t="n"/>
       <c r="K82" s="17" t="n"/>
       <c r="L82" s="17" t="n"/>
@@ -30029,10 +30531,13 @@
   <dimension ref="A3:AA81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AA81"/>
+      <selection activeCell="B53" sqref="B53:C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="26.625" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="2" ht="15" customHeight="1"/>
     <row r="3" ht="15" customHeight="1">
@@ -33551,7 +34056,7 @@
       <c r="A49" s="7" t="n"/>
       <c r="B49" s="65" t="inlineStr">
         <is>
-          <t xml:space="preserve">9.Kurskhimvolokno </t>
+          <t>9.Kurskhimvolokno LTD</t>
         </is>
       </c>
       <c r="C49" s="27" t="n">
@@ -35692,10 +36197,13 @@
   <dimension ref="A3:AA81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AA81"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="26.625" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="2" ht="15" customHeight="1"/>
     <row r="3" ht="15" customHeight="1">
@@ -41346,7 +41854,10 @@
       <selection activeCell="A3" sqref="A3:AA81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="26.625" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="2" ht="15" customHeight="1"/>
     <row r="3" ht="15" customHeight="1">
@@ -46993,13 +47504,14 @@
   </sheetPr>
   <dimension ref="A3:AA81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="26.625" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="2" ht="15" customHeight="1"/>
@@ -52659,7 +53171,7 @@
       <selection activeCell="C3" sqref="C3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
   </cols>
@@ -58303,7 +58815,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
   </cols>
@@ -63955,7 +64467,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
   </cols>
@@ -69605,7 +70117,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
   </cols>

--- a/new monthly report202501.xlsx
+++ b/new monthly report202501.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="21780" tabRatio="600" firstSheet="0" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="202401" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="202402" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="202403" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="202404" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="202405" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="202406" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="202407" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="202408" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="202409" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="202410" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="202411" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="202412" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="202501" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202401" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202402" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202403" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202404" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202405" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202406" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202407" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202408" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202409" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202410" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202411" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202412" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202501" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -26319,7 +26319,7 @@
       <c r="J23" s="88" t="n"/>
       <c r="K23" s="88" t="n"/>
       <c r="L23" s="88" t="n">
-        <v>11285.71099</v>
+        <v>1781.79494308404</v>
       </c>
       <c r="M23" s="89">
         <f>IF(C23&lt;&gt;0,I23/C23,"-")</f>
@@ -27919,10 +27919,8 @@
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" s="7" t="n"/>
-      <c r="B47" s="65" t="inlineStr">
-        <is>
-          <t>7.Other customers</t>
-        </is>
+      <c r="B47" s="65" t="n">
+        <v>0</v>
       </c>
       <c r="C47" s="27" t="n">
         <v>0</v>
@@ -28653,7 +28651,7 @@
         <v>193963.1666</v>
       </c>
       <c r="D58" s="32" t="n">
-        <v>-8534379.330400003</v>
+        <v>133314.21107</v>
       </c>
       <c r="E58" s="32" t="n">
         <v>133314.21107</v>
@@ -29211,7 +29209,7 @@
       </c>
       <c r="M67" s="100" t="inlineStr">
         <is>
-          <t>Fact 1m.2025</t>
+          <t>Fact 1m.2024</t>
         </is>
       </c>
       <c r="N67" s="100" t="inlineStr">
@@ -29222,7 +29220,7 @@
       <c r="O67" s="21" t="n"/>
       <c r="P67" s="100" t="inlineStr">
         <is>
-          <t>Fact 1m.2025 / Fact 1m.2025</t>
+          <t>Fact 1m.2025 / Fact 1m.2024</t>
         </is>
       </c>
       <c r="Q67" s="21" t="n"/>
@@ -29239,7 +29237,7 @@
       <c r="AB67" s="17" t="n"/>
       <c r="AC67" s="17" t="n"/>
     </row>
-    <row r="68">
+    <row r="68" ht="15" customHeight="1">
       <c r="A68" s="8" t="n"/>
       <c r="B68" s="9" t="n"/>
       <c r="C68" s="10" t="n"/>
@@ -29302,7 +29300,7 @@
       <c r="AB68" s="17" t="n"/>
       <c r="AC68" s="17" t="n"/>
     </row>
-    <row r="69">
+    <row r="69" ht="15" customHeight="1">
       <c r="A69" s="55" t="inlineStr">
         <is>
           <t>Revenues from sale of goods</t>
@@ -29315,7 +29313,7 @@
         </is>
       </c>
       <c r="D69" s="69" t="n">
-        <v>52111407.1191667</v>
+        <v>35127792.6561062</v>
       </c>
       <c r="E69" s="69">
         <f>SUM(E70:E72)</f>
@@ -29344,18 +29342,19 @@
         <f>SUM(K70:K72)</f>
         <v/>
       </c>
-      <c r="L69" s="69" t="n">
+      <c r="L69" s="69">
+        <f>SUM(L70:L72)</f>
+        <v/>
+      </c>
+      <c r="M69" s="69" t="n">
         <v>56480927.44</v>
-      </c>
-      <c r="M69" s="69" t="n">
-        <v>52111407.1191667</v>
       </c>
       <c r="N69" s="69">
         <f>L69-K69</f>
         <v/>
       </c>
       <c r="O69" s="59">
-        <f>L69/K69</f>
+        <f>IF(K69&lt;&gt;0,L69/K69,"-")</f>
         <v/>
       </c>
       <c r="P69" s="69">
@@ -29363,7 +29362,7 @@
         <v/>
       </c>
       <c r="Q69" s="59">
-        <f>L69/M69</f>
+        <f>IF(M69&lt;&gt;0,L69/M69,"-")</f>
         <v/>
       </c>
       <c r="R69" s="17" t="n"/>
@@ -29379,7 +29378,7 @@
       <c r="AB69" s="17" t="n"/>
       <c r="AC69" s="17" t="n"/>
     </row>
-    <row r="70">
+    <row r="70" ht="15" customHeight="1">
       <c r="A70" s="55" t="inlineStr">
         <is>
           <t>CPL</t>
@@ -29392,7 +29391,7 @@
         </is>
       </c>
       <c r="D70" s="64" t="n">
-        <v>19119614.3333333</v>
+        <v>10876005</v>
       </c>
       <c r="E70" s="64" t="n">
         <v>24717198.63</v>
@@ -29417,20 +29416,20 @@
         <v/>
       </c>
       <c r="K70" s="64" t="n">
-        <v>19119614.3333333</v>
+        <v>10876005</v>
       </c>
       <c r="L70" s="64" t="n">
         <v>24717198.63</v>
       </c>
       <c r="M70" s="64" t="n">
-        <v>19119614.3333333</v>
+        <v>20168229.13</v>
       </c>
       <c r="N70" s="64">
         <f>L70-K70</f>
         <v/>
       </c>
       <c r="O70" s="60">
-        <f>L70/K70</f>
+        <f>IF(K70&lt;&gt;0,L70/K70,"-")</f>
         <v/>
       </c>
       <c r="P70" s="64">
@@ -29438,7 +29437,7 @@
         <v/>
       </c>
       <c r="Q70" s="60">
-        <f>L70/M70</f>
+        <f>IF(M70&lt;&gt;0,L70/M70,"-")</f>
         <v/>
       </c>
       <c r="R70" s="17" t="n"/>
@@ -29454,7 +29453,7 @@
       <c r="AB70" s="17" t="n"/>
       <c r="AC70" s="17" t="n"/>
     </row>
-    <row r="71">
+    <row r="71" ht="15" customHeight="1">
       <c r="A71" s="55" t="inlineStr">
         <is>
           <t>PA6</t>
@@ -29467,7 +29466,7 @@
         </is>
       </c>
       <c r="D71" s="64" t="n">
-        <v>32032821.3333333</v>
+        <v>23426769.8761062</v>
       </c>
       <c r="E71" s="64" t="n">
         <v>8540477.48</v>
@@ -29492,20 +29491,20 @@
         <v/>
       </c>
       <c r="K71" s="64" t="n">
-        <v>32032821.3333333</v>
+        <v>23426769.8761062</v>
       </c>
       <c r="L71" s="64" t="n">
         <v>8540477.48</v>
       </c>
       <c r="M71" s="64" t="n">
-        <v>32032821.3333333</v>
+        <v>35329356.39</v>
       </c>
       <c r="N71" s="64">
         <f>L71-K71</f>
         <v/>
       </c>
       <c r="O71" s="60">
-        <f>L71/K71</f>
+        <f>IF(K71&lt;&gt;0,L71/K71,"-")</f>
         <v/>
       </c>
       <c r="P71" s="64">
@@ -29513,7 +29512,7 @@
         <v/>
       </c>
       <c r="Q71" s="60">
-        <f>L71/M71</f>
+        <f>IF(M71&lt;&gt;0,L71/M71,"-")</f>
         <v/>
       </c>
       <c r="R71" s="17" t="n"/>
@@ -29542,7 +29541,7 @@
         </is>
       </c>
       <c r="D72" s="64" t="n">
-        <v>958971.4525</v>
+        <v>825017.78</v>
       </c>
       <c r="E72" s="64" t="n">
         <v>932867.3200000003</v>
@@ -29567,20 +29566,20 @@
         <v/>
       </c>
       <c r="K72" s="64" t="n">
-        <v>958971.4525</v>
+        <v>825017.78</v>
       </c>
       <c r="L72" s="64" t="n">
         <v>932867.3200000003</v>
       </c>
       <c r="M72" s="64" t="n">
-        <v>958971.4525</v>
+        <v>983341.92</v>
       </c>
       <c r="N72" s="64">
         <f>L72-K72</f>
         <v/>
       </c>
       <c r="O72" s="60">
-        <f>L72/K72</f>
+        <f>IF(K72&lt;&gt;0,L72/K72,"-")</f>
         <v/>
       </c>
       <c r="P72" s="64">
@@ -29588,7 +29587,7 @@
         <v/>
       </c>
       <c r="Q72" s="60">
-        <f>L72/M72</f>
+        <f>IF(M72&lt;&gt;0,L72/M72,"-")</f>
         <v/>
       </c>
       <c r="R72" s="17" t="n"/>
@@ -29603,7 +29602,7 @@
       <c r="AB72" s="17" t="n"/>
       <c r="AC72" s="17" t="n"/>
     </row>
-    <row r="73">
+    <row r="73" ht="15" customHeight="1">
       <c r="A73" s="55" t="inlineStr">
         <is>
           <t>Expenses for the sale of goods incl:</t>
@@ -29616,7 +29615,7 @@
         </is>
       </c>
       <c r="D73" s="69" t="n">
-        <v>50908946.4396988</v>
+        <v>34621177.9939547</v>
       </c>
       <c r="E73" s="69">
         <f>SUM(E74:E79)</f>
@@ -29645,18 +29644,19 @@
         <f>SUM(K74:K79)</f>
         <v/>
       </c>
-      <c r="L73" s="69" t="n">
+      <c r="L73" s="69">
+        <f>SUM(L74:L79)</f>
+        <v/>
+      </c>
+      <c r="M73" s="69" t="n">
         <v>53199016.02</v>
-      </c>
-      <c r="M73" s="69" t="n">
-        <v>50908946.4396988</v>
       </c>
       <c r="N73" s="69">
         <f>L73-K73</f>
         <v/>
       </c>
       <c r="O73" s="59">
-        <f>L73/K73</f>
+        <f>IF(K73&lt;&gt;0,L73/K73,"-")</f>
         <v/>
       </c>
       <c r="P73" s="69">
@@ -29664,7 +29664,7 @@
         <v/>
       </c>
       <c r="Q73" s="59">
-        <f>L73/M73</f>
+        <f>IF(M73&lt;&gt;0,L73/M73,"-")</f>
         <v/>
       </c>
       <c r="R73" s="17" t="n"/>
@@ -29680,7 +29680,7 @@
       <c r="AB73" s="17" t="n"/>
       <c r="AC73" s="17" t="n"/>
     </row>
-    <row r="74">
+    <row r="74" ht="15" customHeight="1">
       <c r="A74" s="55" t="inlineStr">
         <is>
           <t>Cost of goods</t>
@@ -29693,7 +29693,7 @@
         </is>
       </c>
       <c r="D74" s="64" t="n">
-        <v>47766210.3715097</v>
+        <v>33183618.0825148</v>
       </c>
       <c r="E74" s="64" t="n">
         <v>32209679.16</v>
@@ -29718,20 +29718,20 @@
         <v/>
       </c>
       <c r="K74" s="64" t="n">
-        <v>47766210.3715097</v>
+        <v>33183618.0825148</v>
       </c>
       <c r="L74" s="64" t="n">
         <v>32209679.16</v>
       </c>
       <c r="M74" s="64" t="n">
-        <v>47766210.3715097</v>
+        <v>50259080.46</v>
       </c>
       <c r="N74" s="64">
         <f>L74-K74</f>
         <v/>
       </c>
       <c r="O74" s="60">
-        <f>L74/K74</f>
+        <f>IF(K74&lt;&gt;0,L74/K74,"-")</f>
         <v/>
       </c>
       <c r="P74" s="64">
@@ -29739,7 +29739,7 @@
         <v/>
       </c>
       <c r="Q74" s="60">
-        <f>L74/M74</f>
+        <f>IF(M74&lt;&gt;0,L74/M74,"-")</f>
         <v/>
       </c>
       <c r="R74" s="17" t="n"/>
@@ -29768,7 +29768,7 @@
         </is>
       </c>
       <c r="D75" s="64" t="n">
-        <v>319.07375</v>
+        <v>981.006666666667</v>
       </c>
       <c r="E75" s="64" t="n">
         <v>0</v>
@@ -29793,20 +29793,20 @@
         <v/>
       </c>
       <c r="K75" s="64" t="n">
-        <v>319.07375</v>
+        <v>981.006666666667</v>
       </c>
       <c r="L75" s="64" t="n">
         <v>0</v>
       </c>
       <c r="M75" s="64" t="n">
-        <v>319.07375</v>
+        <v>0</v>
       </c>
       <c r="N75" s="64">
         <f>L75-K75</f>
         <v/>
       </c>
       <c r="O75" s="60">
-        <f>L75/K75</f>
+        <f>IF(K75&lt;&gt;0,L75/K75,"-")</f>
         <v/>
       </c>
       <c r="P75" s="64">
@@ -29814,7 +29814,7 @@
         <v/>
       </c>
       <c r="Q75" s="60">
-        <f>L75/M75</f>
+        <f>IF(M75&lt;&gt;0,L75/M75,"-")</f>
         <v/>
       </c>
       <c r="R75" s="17" t="n"/>
@@ -29843,7 +29843,7 @@
         </is>
       </c>
       <c r="D76" s="64" t="n">
-        <v>2652406.54900391</v>
+        <v>1051656.26224918</v>
       </c>
       <c r="E76" s="64" t="n">
         <v>2523994.39</v>
@@ -29868,20 +29868,20 @@
         <v/>
       </c>
       <c r="K76" s="64" t="n">
-        <v>2652406.54900391</v>
+        <v>1051656.26224918</v>
       </c>
       <c r="L76" s="64" t="n">
         <v>2523994.39</v>
       </c>
       <c r="M76" s="64" t="n">
-        <v>2652406.54900391</v>
+        <v>2328769.95</v>
       </c>
       <c r="N76" s="64">
         <f>L76-K76</f>
         <v/>
       </c>
       <c r="O76" s="60">
-        <f>L76/K76</f>
+        <f>IF(K76&lt;&gt;0,L76/K76,"-")</f>
         <v/>
       </c>
       <c r="P76" s="64">
@@ -29889,7 +29889,7 @@
         <v/>
       </c>
       <c r="Q76" s="60">
-        <f>L76/M76</f>
+        <f>IF(M76&lt;&gt;0,L76/M76,"-")</f>
         <v/>
       </c>
       <c r="R76" s="17" t="n"/>
@@ -29918,7 +29918,7 @@
         </is>
       </c>
       <c r="D77" s="64" t="n">
-        <v>244630.125333333</v>
+        <v>245218.265555556</v>
       </c>
       <c r="E77" s="64" t="n">
         <v>395221.76</v>
@@ -29943,20 +29943,20 @@
         <v/>
       </c>
       <c r="K77" s="64" t="n">
-        <v>244630.125333333</v>
+        <v>245218.265555556</v>
       </c>
       <c r="L77" s="64" t="n">
         <v>395221.76</v>
       </c>
       <c r="M77" s="64" t="n">
-        <v>244630.125333333</v>
+        <v>362655.48</v>
       </c>
       <c r="N77" s="64">
         <f>L77-K77</f>
         <v/>
       </c>
       <c r="O77" s="60">
-        <f>L77/K77</f>
+        <f>IF(K77&lt;&gt;0,L77/K77,"-")</f>
         <v/>
       </c>
       <c r="P77" s="64">
@@ -29964,7 +29964,7 @@
         <v/>
       </c>
       <c r="Q77" s="60">
-        <f>L77/M77</f>
+        <f>IF(M77&lt;&gt;0,L77/M77,"-")</f>
         <v/>
       </c>
       <c r="R77" s="17" t="n"/>
@@ -29993,7 +29993,7 @@
         </is>
       </c>
       <c r="D78" s="64" t="n">
-        <v>103350.23065</v>
+        <v>108177.162801852</v>
       </c>
       <c r="E78" s="64" t="n">
         <v>141451.5599999999</v>
@@ -30018,20 +30018,20 @@
         <v/>
       </c>
       <c r="K78" s="64" t="n">
-        <v>103350.23065</v>
+        <v>108177.162801852</v>
       </c>
       <c r="L78" s="64" t="n">
         <v>141451.5599999999</v>
       </c>
       <c r="M78" s="64" t="n">
-        <v>103350.23065</v>
+        <v>64840.6800000001</v>
       </c>
       <c r="N78" s="64">
         <f>L78-K78</f>
         <v/>
       </c>
       <c r="O78" s="60">
-        <f>L78/K78</f>
+        <f>IF(K78&lt;&gt;0,L78/K78,"-")</f>
         <v/>
       </c>
       <c r="P78" s="64">
@@ -30039,7 +30039,7 @@
         <v/>
       </c>
       <c r="Q78" s="60">
-        <f>L78/M78</f>
+        <f>IF(M78&lt;&gt;0,L78/M78,"-")</f>
         <v/>
       </c>
       <c r="R78" s="17" t="n"/>
@@ -30068,7 +30068,7 @@
         </is>
       </c>
       <c r="D79" s="64" t="n">
-        <v>142030.089451852</v>
+        <v>31527.2141666667</v>
       </c>
       <c r="E79" s="64" t="n">
         <v>3244.99</v>
@@ -30093,20 +30093,20 @@
         <v/>
       </c>
       <c r="K79" s="64" t="n">
-        <v>142030.089451852</v>
+        <v>31527.2141666667</v>
       </c>
       <c r="L79" s="64" t="n">
         <v>3244.99</v>
       </c>
       <c r="M79" s="64" t="n">
-        <v>142030.089451852</v>
+        <v>183669.45</v>
       </c>
       <c r="N79" s="64">
         <f>L79-K79</f>
         <v/>
       </c>
       <c r="O79" s="60">
-        <f>L79/K79</f>
+        <f>IF(K79&lt;&gt;0,L79/K79,"-")</f>
         <v/>
       </c>
       <c r="P79" s="64">
@@ -30114,7 +30114,7 @@
         <v/>
       </c>
       <c r="Q79" s="60">
-        <f>L79/M79</f>
+        <f>IF(M79&lt;&gt;0,L79/M79,"-")</f>
         <v/>
       </c>
       <c r="R79" s="17" t="n"/>
@@ -30143,7 +30143,7 @@
         </is>
       </c>
       <c r="D80" s="64" t="n">
-        <v>-30660.4557979019</v>
+        <v>-15418.4689269971</v>
       </c>
       <c r="E80" s="64" t="n">
         <v>-235576.44</v>
@@ -30168,20 +30168,20 @@
         <v/>
       </c>
       <c r="K80" s="64" t="n">
-        <v>-30660.4557979019</v>
+        <v>-15418.4689269971</v>
       </c>
       <c r="L80" s="64" t="n">
         <v>-235576.44</v>
       </c>
       <c r="M80" s="64" t="n">
-        <v>-30660.4557979019</v>
+        <v>426110.93</v>
       </c>
       <c r="N80" s="64">
         <f>L80-K80</f>
         <v/>
       </c>
       <c r="O80" s="60">
-        <f>L80/K80</f>
+        <f>IF(K80&lt;&gt;0,L80/K80,"-")</f>
         <v/>
       </c>
       <c r="P80" s="64">
@@ -30189,7 +30189,7 @@
         <v/>
       </c>
       <c r="Q80" s="60">
-        <f>L80/M80</f>
+        <f>IF(M80&lt;&gt;0,L80/M80,"-")</f>
         <v/>
       </c>
       <c r="R80" s="17" t="n"/>
@@ -30218,10 +30218,10 @@
         </is>
       </c>
       <c r="D81" s="69" t="n">
-        <v>1171800.22366995</v>
+        <v>491196.193224533</v>
       </c>
       <c r="E81" s="69" t="n">
-        <v>0</v>
+        <v>-1318624.87</v>
       </c>
       <c r="F81" s="69" t="n">
         <v>3708022.34999999</v>
@@ -30243,20 +30243,20 @@
         <v/>
       </c>
       <c r="K81" s="69" t="n">
-        <v>1171800.22366995</v>
+        <v>491196.193224533</v>
       </c>
       <c r="L81" s="69" t="n">
-        <v>0</v>
+        <v>-1318624.87</v>
       </c>
       <c r="M81" s="69" t="n">
-        <v>1171800.22366995</v>
+        <v>3708022.34999999</v>
       </c>
       <c r="N81" s="69">
         <f>L81-K81</f>
         <v/>
       </c>
       <c r="O81" s="59">
-        <f>L81/K81</f>
+        <f>IF(K81&lt;&gt;0,L81/K81,"-")</f>
         <v/>
       </c>
       <c r="P81" s="69">
@@ -30264,7 +30264,7 @@
         <v/>
       </c>
       <c r="Q81" s="59">
-        <f>L81/M81</f>
+        <f>IF(M81&lt;&gt;0,L81/M81,"-")</f>
         <v/>
       </c>
       <c r="R81" s="17" t="n"/>
